--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2nd-2024-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프론트엔드과정\FED-RF-2nd-2024-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -546,7 +546,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +577,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -780,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +820,102 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,101 +937,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,8 +1248,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,41 +1269,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1319,832 +1328,832 @@
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <v>45329</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12">
         <v>45330</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="14">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <v>45335</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="18">
         <v>45338</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="50">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="30" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <v>45341</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18">
         <v>45345</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="33"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <v>45348</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="18">
         <v>45351</v>
       </c>
-      <c r="F8" s="31">
-        <f>DAYS360(C8,E8)</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="50">
+        <f>DAYS360(C8,E8)+1</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="30" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="32" t="s">
+      <c r="K8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="33"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <v>45355</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="18">
         <v>45359</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>45362</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="18">
         <v>45366</v>
       </c>
-      <c r="F10" s="31">
-        <f>DAYS360(C10,E10)+2</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="24">
+        <f>DAYS360(C10,E10)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="33"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <v>45369</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18">
         <v>45373</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="32" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="33"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <v>45376</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18">
         <v>45380</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="32" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="33"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <v>45383</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="18">
         <v>45387</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="35" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35" t="s">
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L13" s="33"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="18">
         <v>45390</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="18">
         <v>45394</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="50">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="35" t="s">
+      <c r="H14" s="19"/>
+      <c r="I14" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>45397</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="18">
         <v>45401</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="24">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="35" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <v>45404</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18">
         <v>45408</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="35" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="33"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="18">
         <v>45411</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="18">
         <v>45415</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="18">
         <v>45419</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="18">
         <v>45422</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="35" t="s">
+      <c r="H18" s="19"/>
+      <c r="I18" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="33"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="18">
         <v>45425</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="18">
         <v>45429</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="50">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="35" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="K19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="33"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="18">
         <v>45432</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="18">
         <v>45436</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="32" t="s">
+      <c r="H20" s="19"/>
+      <c r="I20" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="37"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="18">
         <v>45439</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="18">
         <v>45443</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="35" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="33"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="18">
         <v>45446</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="18">
         <v>45450</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="50">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="19"/>
+      <c r="I22" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="18">
         <v>45453</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="18">
         <v>45457</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="36" t="s">
+      <c r="H23" s="19"/>
+      <c r="I23" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="33"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="18">
         <v>45460</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="18">
         <v>45464</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="36" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="35" t="s">
+      <c r="K24" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="38"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="18">
         <v>45467</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="18">
         <v>45471</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="36" t="s">
+      <c r="H25" s="32"/>
+      <c r="I25" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="18">
         <v>45474</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="18">
         <v>45478</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="36" t="s">
+      <c r="H26" s="32"/>
+      <c r="I26" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="K26" s="35" t="s">
+      <c r="K26" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="L26" s="37"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="18">
         <v>45481</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="D27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="18">
         <v>45485</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="18">
         <v>45286</v>
       </c>
-      <c r="I27" s="36" t="s">
+      <c r="I27" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="J27" s="36" t="s">
+      <c r="J27" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="K27" s="35" t="s">
+      <c r="K27" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L27" s="37"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="18">
         <v>45488</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="D28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="18">
         <v>45492</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="36" t="s">
+      <c r="H28" s="32"/>
+      <c r="I28" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="36" t="s">
+      <c r="J28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="35" t="s">
+      <c r="K28" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="37"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="18">
         <v>45495</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="25">
+      <c r="D29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="18">
         <v>45499</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="36" t="s">
+      <c r="H29" s="32"/>
+      <c r="I29" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="32" t="s">
+      <c r="J29" s="28"/>
+      <c r="K29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="40"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="18">
         <v>45502</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="D30" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="18">
         <v>45504</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46" t="s">
+      <c r="H30" s="38"/>
+      <c r="I30" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="49"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
@@ -2155,32 +2164,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -90,10 +90,6 @@
 Point Learning Ⅰ Project</t>
   </si>
   <si>
-    <t>DataBase
-Point Learning Ⅱ Project</t>
-  </si>
-  <si>
     <t>NCS 학습단위</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
   </si>
   <si>
     <t>JavaScript</t>
-  </si>
-  <si>
-    <t>DataBase</t>
   </si>
   <si>
     <t>1차 분석 / 설계</t>
@@ -126,10 +119,6 @@
   <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Programming(React.js)
-Programming(php,Laravel)</t>
   </si>
   <si>
     <t>Point Learning Ⅱ Project
@@ -468,6 +457,46 @@
   </si>
   <si>
     <t>※ 휴일(총 7일) : 구정(2/8~2/12), 삼일절(3/1), 선거일(4/10), 어린이날(5/6대체), 석가탄신일(5/15), 현충일(6/6)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming(React.js)
+Programming(php,Laravel)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming(php,Laravel)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase
+Point Learning Ⅱ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅱ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-18
+최종작품발표회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>024-07-31
+수료식</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +575,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,6 +612,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -786,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,27 +861,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -868,9 +897,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,9 +927,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,6 +939,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,8 +963,56 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1249,7 +1323,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1269,893 +1343,911 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="49"/>
+      <c r="B2" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="47">
         <v>45329</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="47">
         <v>45330</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="49">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>69</v>
+      <c r="L5" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="11">
         <v>45335</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="18">
+      <c r="D6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
         <v>45338</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="56">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="26"/>
+      <c r="K6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="14">
         <v>45341</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14">
         <v>45345</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="26"/>
+      <c r="H7" s="59">
+        <v>45345</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="14">
         <v>45348</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14">
         <v>45351</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="37">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="26"/>
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="14">
         <v>45355</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="18">
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14">
         <v>45359</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="G9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="26"/>
+      <c r="K9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="14">
         <v>45362</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14">
         <v>45366</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="26"/>
+      <c r="H10" s="53">
+        <v>45363</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>45369</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="18">
+      <c r="D11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
         <v>45373</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="26"/>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>45376</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="18">
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14">
         <v>45380</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="26"/>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>45383</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14">
         <v>45387</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="26"/>
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="53">
+        <v>45386</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="14">
         <v>45390</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14">
         <v>45394</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="37">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="28" t="s">
+      <c r="G14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14">
         <v>45397</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14">
         <v>45401</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="28" t="s">
+      <c r="G15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="J15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
         <v>45404</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="18">
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14">
         <v>45408</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="26"/>
+      <c r="G16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="53">
+        <v>45407</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14">
         <v>45411</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
         <v>45415</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="28" t="s">
+      <c r="G17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="21"/>
+      <c r="J17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14">
         <v>45419</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14">
         <v>45422</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="28" t="s">
+      <c r="G18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="53">
+        <v>45422</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="J18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="14">
         <v>45425</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14">
         <v>45429</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="37">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="26"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="B20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14">
         <v>45432</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="18">
+      <c r="D20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
         <v>45436</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="30"/>
+      <c r="G20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="53">
+        <v>45436</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="14">
         <v>45439</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14">
         <v>45443</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="26"/>
+      <c r="G21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="14">
         <v>45446</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14">
         <v>45450</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="37">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="23" t="s">
+      <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="26"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="B23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="14">
         <v>45453</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14">
         <v>45457</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="26"/>
+      <c r="G23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="14">
         <v>45460</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
         <v>45464</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="25" t="s">
+      <c r="G24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="53">
+        <v>45460</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="31"/>
+      <c r="K24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="B25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="14">
         <v>45467</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
         <v>45471</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="31"/>
+      <c r="G25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="B26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="14">
         <v>45474</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>45478</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="30"/>
+      <c r="G26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="14">
         <v>45481</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14">
         <v>45485</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="18">
-        <v>45286</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="30"/>
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="53">
+        <v>45481</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="B28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="14">
         <v>45488</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="18">
+      <c r="D28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14">
         <v>45492</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="30"/>
+      <c r="G28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="B29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="14">
         <v>45495</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14">
         <v>45499</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="33"/>
-    </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="C30" s="45">
         <v>45502</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="18">
+      <c r="D30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="45">
         <v>45504</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="40" t="s">
+      <c r="G30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="42"/>
-    </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2164,32 +2256,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
+      <c r="B33" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -131,10 +131,6 @@
   <si>
     <t>Programming(Flutter)
 Point Learning Ⅲ Project</t>
-  </si>
-  <si>
-    <t>HTML5 + CSS3 기본 및 응용연습
-와이어프레이밍(Balsamiq)</t>
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습
@@ -497,6 +493,35 @@
       <t>024-07-31
 수료식</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>HTML5 + CSS3 기본 및 응용연습
+와이어프레이밍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">(Balsamiq) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>Javascript 기본</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5 + CSS3 기본 및 응용연습</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,9 +889,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -942,6 +964,51 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,55 +1030,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1323,7 +1360,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1343,41 +1380,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
+      <c r="B2" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1385,867 +1422,865 @@
         <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="39">
         <v>45329</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="47">
+      <c r="D5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="39">
         <v>45330</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="41">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="51" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="52" t="s">
-        <v>66</v>
+      <c r="L5" s="44" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="39">
         <v>45335</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="39">
         <v>45338</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="62">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="55" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="58"/>
+      <c r="K6" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>45341</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14">
+      <c r="D7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11">
         <v>45345</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="59">
         <v>45345</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="22"/>
+      <c r="K7" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>45348</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="D8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13">
         <v>45351</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="22"/>
+      <c r="J8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>45355</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="14">
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13">
         <v>45359</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="22"/>
+      <c r="K9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>45362</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13">
         <v>45366</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="45">
         <v>45363</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="J10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>45369</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13">
         <v>45373</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="21" t="s">
+      <c r="G11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>45376</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="D12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="13">
         <v>45380</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="21" t="s">
+      <c r="G12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>45383</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="D13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13">
         <v>45387</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="53">
+      <c r="H13" s="45">
         <v>45386</v>
       </c>
-      <c r="I13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="22"/>
+      <c r="I13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13">
         <v>45390</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="13">
         <v>45394</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="23" t="s">
+      <c r="G14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="13">
         <v>45397</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13">
         <v>45401</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="G15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="13">
         <v>45404</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13">
         <v>45408</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" s="53">
+      <c r="G16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="45">
         <v>45407</v>
       </c>
-      <c r="I16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="22"/>
+      <c r="I16" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="13">
         <v>45411</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13">
         <v>45415</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="17"/>
+      <c r="G17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="13">
         <v>45419</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="D18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13">
         <v>45422</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="53">
+      <c r="G18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="45">
         <v>45422</v>
       </c>
-      <c r="I18" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="22"/>
+      <c r="I18" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="13">
         <v>45425</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13">
         <v>45429</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="22"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="13">
         <v>45432</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13">
         <v>45436</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="53">
+      <c r="G20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="45">
         <v>45436</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="25"/>
+      <c r="K20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="24"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13">
         <v>45439</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13">
         <v>45443</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="G21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="J21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="13">
         <v>45446</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="D22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="13">
         <v>45450</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="22"/>
+      <c r="G22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="13">
         <v>45453</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="13">
         <v>45457</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" s="22"/>
+      <c r="G23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13">
         <v>45460</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="D24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="13">
         <v>45464</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="45">
         <v>45460</v>
       </c>
-      <c r="I24" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="21" t="s">
+      <c r="I24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="26"/>
+      <c r="K24" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="13">
         <v>45467</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13">
         <v>45471</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="26"/>
+      <c r="G25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="13">
         <v>45474</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="D26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="13">
         <v>45478</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="25"/>
+      <c r="G26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="24"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="13">
         <v>45481</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="D27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="13">
         <v>45485</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="53">
+      <c r="H27" s="45">
         <v>45481</v>
       </c>
-      <c r="I27" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="25"/>
+      <c r="I27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="13">
         <v>45488</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="D28" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13">
         <v>45492</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="60" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="25"/>
+      <c r="G28" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13">
         <v>45495</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="14">
+      <c r="D29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13">
         <v>45499</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L29" s="28"/>
+      <c r="G29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="45">
+      <c r="B30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="37">
         <v>45502</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="45">
+      <c r="D30" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="37">
         <v>45504</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="L30" s="36"/>
+      <c r="G30" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" s="35"/>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2256,32 +2291,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
+      <c r="B33" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -515,6 +515,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>Javascript 기본</t>
     </r>
@@ -1009,6 +1011,21 @@
     <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,25 +1047,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,7 +1362,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1380,41 +1382,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1468,19 +1470,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="39">
         <v>45335</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="53" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="39">
         <v>45338</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="54">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
@@ -1488,81 +1490,81 @@
         <v>24</v>
       </c>
       <c r="H6" s="40"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61" t="s">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="L6" s="63"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="39">
         <v>45341</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="39">
         <v>45345</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="54">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="59">
+      <c r="H7" s="65">
         <v>45345</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>45348</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11">
         <v>45351</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="48">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="18" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="21"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
@@ -2291,32 +2293,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -80,10 +80,6 @@
   <si>
     <t>Programming(php,Laravel)
 DataBase</t>
-  </si>
-  <si>
-    <t>2023-12-08(금) 작품발표회
-[2차 프로젝트 발표]</t>
   </si>
   <si>
     <t>JavaScript
@@ -238,22 +234,6 @@
   </si>
   <si>
     <t>공식 프로젝트</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">도깨비 PJ v2. / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>CGV PJ</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Javascript 응용
@@ -437,10 +417,6 @@
       </rPr>
       <t>- 리액트PJ 완성도 높이기</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 - 리액트PJ 완성도 높이기</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +500,177 @@
   </si>
   <si>
     <t>HTML5 + CSS3 기본 및 응용연습</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ
+5일간진행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">도깨비 PJ v2. / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>CGV PJ</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023-07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>(금) 작품발표회
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>차 프로젝트 발표]</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2023-04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>(금) 작품발표회
+[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>차 프로젝트 발표]</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩
+(팀 프로젝트)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1026,6 +1173,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,10 +1200,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1362,7 +1515,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1382,58 +1535,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -1457,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
@@ -1466,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1487,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="53"/>
@@ -1495,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L6" s="55"/>
     </row>
@@ -1517,19 +1670,19 @@
         <v>5</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="65">
+        <v>27</v>
+      </c>
+      <c r="H7" s="58">
         <v>45345</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" s="55"/>
     </row>
@@ -1552,17 +1705,17 @@
         <v>4</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>32</v>
       </c>
       <c r="L8" s="49"/>
     </row>
@@ -1584,17 +1737,17 @@
         <v>5</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="21"/>
     </row>
@@ -1616,21 +1769,23 @@
         <v>5</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="45">
         <v>45363</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>64</v>
+        <v>21</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="L10" s="66" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -1650,17 +1805,17 @@
         <v>5</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="21"/>
     </row>
@@ -1682,17 +1837,17 @@
         <v>5</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="21"/>
     </row>
@@ -1714,23 +1869,25 @@
         <v>5</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="45">
         <v>45386</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="22"/>
+        <v>109</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>112</v>
+      </c>
       <c r="K13" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="13">
         <v>45390</v>
@@ -1746,23 +1903,23 @@
         <v>4</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13">
         <v>45397</v>
@@ -1778,23 +1935,23 @@
         <v>5</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13">
         <v>45404</v>
@@ -1810,25 +1967,25 @@
         <v>5</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" s="45">
         <v>45407</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L16" s="21"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="13">
         <v>45411</v>
@@ -1844,23 +2001,23 @@
         <v>5</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L17" s="16"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="13">
         <v>45419</v>
@@ -1876,25 +2033,25 @@
         <v>4</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="45">
         <v>45422</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L18" s="21"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="13">
         <v>45425</v>
@@ -1914,19 +2071,19 @@
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="21"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="13">
         <v>45432</v>
@@ -1942,25 +2099,25 @@
         <v>5</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H20" s="45">
         <v>45436</v>
       </c>
       <c r="I20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="K20" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L20" s="24"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="13">
         <v>45439</v>
@@ -1976,23 +2133,23 @@
         <v>5</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13">
         <v>45446</v>
@@ -2008,23 +2165,23 @@
         <v>4</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L22" s="21"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="13">
         <v>45453</v>
@@ -2040,23 +2197,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="L23" s="21"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13">
         <v>45460</v>
@@ -2072,25 +2229,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="45">
         <v>45460</v>
       </c>
       <c r="I24" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="13">
         <v>45467</v>
@@ -2106,23 +2263,23 @@
         <v>5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="13">
         <v>45474</v>
@@ -2138,23 +2295,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L26" s="24"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="13">
         <v>45481</v>
@@ -2170,25 +2327,25 @@
         <v>5</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" s="45">
         <v>45481</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L27" s="24"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="13">
         <v>45488</v>
@@ -2204,25 +2361,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="J28" s="67" t="s">
+        <v>111</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L28" s="24"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="13">
         <v>45495</v>
@@ -2238,21 +2395,21 @@
         <v>5</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L29" s="27"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="37">
         <v>45502</v>
@@ -2268,19 +2425,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30" s="51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J30" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L30" s="35"/>
     </row>
@@ -2293,32 +2450,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
+      <c r="B33" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -242,10 +242,6 @@
   </si>
   <si>
     <t>도깨비 PJ v2.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 팔로우업 / 2차 주제선정</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -273,10 +269,6 @@
   <si>
     <t>Javascript 응용
 React 기초(ES6 JS)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1차 팔로우업 / 2차 주제선정</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -503,11 +495,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>팀PJ
-5일간진행</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">도깨비 PJ v2. / </t>
     </r>
@@ -542,6 +529,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-</t>
     </r>
@@ -560,6 +549,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(금) 작품발표회
 [2차 프로젝트 발표]</t>
@@ -575,6 +566,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-</t>
     </r>
@@ -593,6 +586,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(금) 작품발표회
 [</t>
@@ -612,6 +607,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>차 프로젝트 발표]</t>
     </r>
@@ -626,6 +623,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>-</t>
     </r>
@@ -644,6 +643,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(금) 작품발표회
 [</t>
@@ -663,14 +664,30 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>차 프로젝트 발표]</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1차 상세코딩
-(팀 프로젝트)</t>
+    <t>팀PJ
+10일간진행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 상세코딩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정
+팀 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정
+팀 프로젝트</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +701,7 @@
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -748,6 +765,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -799,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -992,6 +1016,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1001,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,9 +1062,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1209,12 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,11 +1236,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1515,7 +1551,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1535,57 +1571,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="58" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1593,853 +1629,855 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="38">
         <v>45329</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>45330</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="40">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="43" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="43" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <v>45335</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>45338</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="53">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53" t="s">
+      <c r="H6" s="39"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="38">
         <v>45341</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>45345</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>45345</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>45348</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>45351</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="47">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="47" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="47" t="s">
+      <c r="J8" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="49"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>45355</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>45359</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="21"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>45362</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>45366</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>45363</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="20" t="s">
+      <c r="J10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="66" t="s">
-        <v>108</v>
-      </c>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>45369</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>45373</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>45376</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>45380</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="20" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="21"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>45383</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>45387</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="44">
         <v>45386</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="L13" s="21"/>
+      <c r="K13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>45390</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>45394</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>45397</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>45401</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="23" t="s">
+      <c r="H15" s="13"/>
+      <c r="I15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="67" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>45404</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>45408</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" s="45">
+      <c r="G16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="44">
         <v>45407</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="22" t="s">
+      <c r="I16" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>45411</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>45415</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="18" t="s">
+      <c r="G17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="16"/>
+      <c r="K17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>45419</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>45422</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="44">
         <v>45422</v>
       </c>
-      <c r="I18" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="18" t="s">
+      <c r="I18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <v>45425</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>45429</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="18" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="21"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>45432</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>45436</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="45">
+      <c r="G20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="44">
         <v>45436</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="L20" s="24"/>
+      <c r="K20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>45439</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>45443</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="18" t="s">
+      <c r="G21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="21"/>
+      <c r="K21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>45446</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>45450</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>45453</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>45457</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="23" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L23" s="21"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>45460</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>45464</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="44">
         <v>45460</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="J24" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="25"/>
+      <c r="L24" s="24"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="12">
         <v>45467</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>45471</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="24"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="12">
         <v>45474</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>45478</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="23"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="12">
         <v>45481</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>45485</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="44">
         <v>45481</v>
       </c>
-      <c r="I27" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L27" s="24"/>
+      <c r="I27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="23"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>45488</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>45492</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="L28" s="24"/>
+      <c r="H28" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="23"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>45495</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>45499</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="20" t="s">
+      <c r="H29" s="25"/>
+      <c r="I29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="27"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>45502</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>45504</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="K30" s="34" t="s">
+      <c r="H30" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2450,32 +2488,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="B33" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -1034,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1179,9 +1179,6 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1218,8 +1215,8 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,11 +1239,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1557,7 +1551,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1577,57 +1571,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="57" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1665,19 +1659,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="38">
         <v>45335</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="38">
         <v>45338</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="52">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
@@ -1685,63 +1679,63 @@
         <v>23</v>
       </c>
       <c r="H6" s="39"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="55" t="s">
+      <c r="K6" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="54"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="38">
         <v>45341</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="38">
         <v>45345</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <v>45345</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="55" t="s">
+      <c r="K7" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="38">
         <v>45348</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="38">
         <v>45351</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
@@ -1749,83 +1743,83 @@
         <v>24</v>
       </c>
       <c r="H8" s="38"/>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="54"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="38">
         <v>45355</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="38">
         <v>45359</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="69"/>
-      <c r="I9" s="46" t="s">
+      <c r="H9" s="39"/>
+      <c r="I9" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="46" t="s">
+      <c r="J9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>45362</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>45366</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="47">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="10">
         <v>45363</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -1917,7 +1911,7 @@
       <c r="I13" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="58" t="s">
         <v>109</v>
       </c>
       <c r="K13" s="21" t="s">
@@ -1955,7 +1949,7 @@
       <c r="K14" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="59" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1989,7 +1983,7 @@
       <c r="K15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="59" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2281,7 +2275,7 @@
       <c r="I24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="59" t="s">
+      <c r="J24" s="58" t="s">
         <v>107</v>
       </c>
       <c r="K24" s="21" t="s">
@@ -2407,13 +2401,13 @@
       <c r="G28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="48" t="s">
         <v>102</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="58" t="s">
         <v>108</v>
       </c>
       <c r="K28" s="21" t="s">
@@ -2471,7 +2465,7 @@
       <c r="G30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H30" s="49" t="s">
         <v>103</v>
       </c>
       <c r="I30" s="31" t="s">
@@ -2494,32 +2488,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -236,39 +236,12 @@
     <t>공식 프로젝트</t>
   </si>
   <si>
-    <t>Javascript 응용
-React 기초</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Javascript 응용
 React 인트로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Javascript 응용
-React 기초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(ES6 JS)</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 응용
-React 기초(ES6 JS)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -511,167 +484,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2023-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(금) 작품발표회
-[2차 프로젝트 발표]</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2023-07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(금) 작품발표회
-[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차 프로젝트 발표]</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2023-04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>05</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>(금) 작품발표회
-[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차 프로젝트 발표]</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>팀PJ
 10일간진행</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -688,6 +500,40 @@
   <si>
     <t>1차 팔로우업 / 2차 주제선정
 팀 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용 / 제이쿼리
+React 기초(ES6 JS)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용 / 제이쿼리
+React 기초(ES6 JS)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용 / 제이쿼리
+React 기초</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ
+11일간진행</t>
+  </si>
+  <si>
+    <t>2023-04-05(금) 작품발표회
+[1차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-21(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-19(금) 작품발표회
+[3차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1025,6 +871,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1034,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1209,9 +1122,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,8 +1149,35 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1571,41 +1508,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="67"/>
+      <c r="B2" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L6" s="53"/>
     </row>
@@ -1718,7 +1655,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L7" s="53"/>
     </row>
@@ -1749,7 +1686,7 @@
       <c r="J8" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="60" t="s">
+      <c r="K8" s="59" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="53"/>
@@ -1781,79 +1718,79 @@
       <c r="J9" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="59" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="38">
         <v>45362</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="38">
         <v>45366</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="52">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="38">
         <v>45363</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="55" t="s">
+      <c r="J10" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="59" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>45369</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
         <v>45373</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="67"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
@@ -1877,7 +1814,7 @@
       <c r="I12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="71" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -1885,7 +1822,7 @@
       </c>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1908,14 +1845,14 @@
       <c r="H13" s="44">
         <v>45386</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>69</v>
+      <c r="I13" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>68</v>
       </c>
       <c r="L13" s="20"/>
     </row>
@@ -1941,16 +1878,16 @@
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>112</v>
+        <v>67</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>106</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="L14" s="58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1975,16 +1912,16 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2005,21 +1942,23 @@
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H16" s="44">
         <v>45407</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="L16" s="58" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
@@ -2039,17 +1978,17 @@
         <v>5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L17" s="15"/>
     </row>
@@ -2077,13 +2016,13 @@
         <v>45422</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J18" s="17" t="s">
         <v>62</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L18" s="20"/>
     </row>
@@ -2109,7 +2048,7 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J19" s="17" t="s">
         <v>62</v>
@@ -2137,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="44">
         <v>45436</v>
@@ -2149,7 +2088,7 @@
         <v>62</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L20" s="23"/>
     </row>
@@ -2171,17 +2110,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J21" s="17" t="s">
         <v>62</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -2207,7 +2146,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J22" s="17" t="s">
         <v>62</v>
@@ -2217,7 +2156,7 @@
       </c>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>57</v>
       </c>
@@ -2239,17 +2178,17 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="71" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16" t="s">
         <v>47</v>
       </c>
@@ -2272,14 +2211,14 @@
       <c r="H24" s="44">
         <v>45460</v>
       </c>
-      <c r="I24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>86</v>
+      <c r="I24" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="L24" s="24"/>
     </row>
@@ -2305,13 +2244,13 @@
       </c>
       <c r="H25" s="25"/>
       <c r="I25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="J25" s="75" t="s">
+        <v>91</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L25" s="24"/>
     </row>
@@ -2337,17 +2276,17 @@
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="16" t="s">
         <v>55</v>
       </c>
@@ -2371,17 +2310,17 @@
         <v>45481</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>92</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>56</v>
       </c>
@@ -2402,16 +2341,16 @@
         <v>41</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="I28" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="L28" s="23"/>
     </row>
@@ -2437,9 +2376,9 @@
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="21"/>
+        <v>89</v>
+      </c>
+      <c r="J29" s="72"/>
       <c r="K29" s="19" t="s">
         <v>65</v>
       </c>
@@ -2466,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I30" s="31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K30" s="33" t="s">
         <v>65</v>
@@ -2488,32 +2427,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
+      <c r="B33" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -484,11 +484,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>팀PJ
-10일간진행</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 상세코딩</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -518,10 +513,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>팀PJ
-11일간진행</t>
-  </si>
-  <si>
     <t>2023-04-05(금) 작품발표회
 [1차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -534,6 +525,11 @@
   <si>
     <t>2023-07-19(금) 작품발표회
 [3차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀PJ
+3주간진행</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1128,6 +1124,36 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1147,36 +1173,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,7 +1484,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1508,41 +1504,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="57" t="s">
         <v>8</v>
       </c>
@@ -1750,12 +1746,12 @@
         <v>21</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="68"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
@@ -1788,7 +1784,7 @@
       <c r="K11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="67"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="16" t="s">
@@ -1814,7 +1810,7 @@
       <c r="I12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="64" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -1845,13 +1841,13 @@
       <c r="H13" s="44">
         <v>45386</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="70" t="s">
+      <c r="J13" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="63" t="s">
         <v>68</v>
       </c>
       <c r="L13" s="20"/>
@@ -1880,14 +1876,14 @@
       <c r="I14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="72" t="s">
-        <v>106</v>
+      <c r="J14" s="65" t="s">
+        <v>105</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L14" s="58" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1915,13 +1911,13 @@
         <v>70</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" s="58" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,10 +1950,10 @@
         <v>69</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" s="58" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2176,7 @@
       <c r="I23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J23" s="71" t="s">
+      <c r="J23" s="64" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="21" t="s">
@@ -2211,13 +2207,13 @@
       <c r="H24" s="44">
         <v>45460</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="70" t="s">
+      <c r="J24" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="63" t="s">
         <v>83</v>
       </c>
       <c r="L24" s="24"/>
@@ -2246,7 +2242,7 @@
       <c r="I25" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="68" t="s">
         <v>91</v>
       </c>
       <c r="K25" s="21" t="s">
@@ -2312,7 +2308,7 @@
       <c r="I27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="69" t="s">
         <v>92</v>
       </c>
       <c r="K27" s="21" t="s">
@@ -2343,13 +2339,13 @@
       <c r="H28" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" s="70" t="s">
+      <c r="J28" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="63" t="s">
         <v>83</v>
       </c>
       <c r="L28" s="23"/>
@@ -2378,7 +2374,7 @@
       <c r="I29" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J29" s="72"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="19" t="s">
         <v>65</v>
       </c>
@@ -2427,32 +2423,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -943,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1173,6 +1173,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,8 +1489,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1754,69 +1760,69 @@
       <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="38">
         <v>45369</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="38">
         <v>45373</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="52">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="60"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>45376</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>45380</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="47">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="19" t="s">
+      <c r="H12" s="77"/>
+      <c r="I12" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="20"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="16" t="s">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -242,22 +242,6 @@
   <si>
     <t>Javascript 응용
 React 인트로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> 2차 주제선정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> + 분석설계</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -513,11 +497,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023-04-05(금) 작품발표회
-[1차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-06-21(금) 작품발표회
 [2차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -530,6 +509,11 @@
   <si>
     <t>팀PJ
 3주간진행</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-12(금) 작품발표회
+[1차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -989,9 +973,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,6 +1135,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,12 +1160,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,8 +1470,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1510,57 +1491,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
+      <c r="B2" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="56" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1568,310 +1549,310 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>45329</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="38">
+      <c r="D5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="37">
         <v>45330</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="42" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="42" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>45335</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="38">
+      <c r="D6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="37">
         <v>45338</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="51">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>45341</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="38">
+      <c r="D7" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="37">
         <v>45345</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="55">
         <v>45345</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="53"/>
+      <c r="K7" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>45348</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="38">
+      <c r="D8" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="37">
         <v>45351</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="51">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="51" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="53"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>45355</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="38">
+      <c r="D9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="37">
         <v>45359</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="51" t="s">
+      <c r="H9" s="38"/>
+      <c r="I9" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="51" t="s">
+      <c r="J9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="53"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>45362</v>
       </c>
-      <c r="D10" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="38">
+      <c r="D10" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37">
         <v>45366</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="51">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>45363</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="59" t="s">
+      <c r="J10" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="61"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>45369</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="38">
+      <c r="D11" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="37">
         <v>45373</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="59" t="s">
+      <c r="H11" s="37"/>
+      <c r="I11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="10">
         <v>45376</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="10">
         <v>45380</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="69"/>
+      <c r="I12" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="60"/>
+      <c r="L12" s="59"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="12">
         <v>45383</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="12">
         <v>45387</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <v>45386</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="12">
         <v>45390</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="12">
         <v>45394</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
@@ -1879,33 +1860,31 @@
         <v>34</v>
       </c>
       <c r="H14" s="13"/>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>67</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="12">
         <v>45397</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="12">
         <v>45401</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="17">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
@@ -1913,135 +1892,137 @@
         <v>34</v>
       </c>
       <c r="H15" s="13"/>
-      <c r="I15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="L15" s="58" t="s">
-        <v>113</v>
+      <c r="I15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="12">
         <v>45404</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="12">
         <v>45408</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="44">
+        <v>94</v>
+      </c>
+      <c r="H16" s="43">
         <v>45407</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="58" t="s">
-        <v>113</v>
+      <c r="I16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="57" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="12">
         <v>45411</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="12">
         <v>45415</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="15"/>
+      <c r="I17" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="12">
         <v>45419</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="12">
         <v>45422</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <v>45422</v>
       </c>
-      <c r="I18" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="12">
         <v>45425</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="12">
         <v>45429</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
@@ -2049,97 +2030,97 @@
         <v>18</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="20"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="12">
         <v>45432</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="12">
         <v>45436</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="44">
+        <v>96</v>
+      </c>
+      <c r="H20" s="43">
         <v>45436</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="23"/>
+      <c r="K20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="22"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="12">
         <v>45439</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="12">
         <v>45443</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="I21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="12">
         <v>45446</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="12">
         <v>45450</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
@@ -2147,31 +2128,31 @@
         <v>37</v>
       </c>
       <c r="H22" s="13"/>
-      <c r="I22" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="20"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="12">
         <v>45453</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="12">
         <v>45457</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2179,246 +2160,246 @@
         <v>37</v>
       </c>
       <c r="H23" s="13"/>
-      <c r="I23" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="64" t="s">
+      <c r="I23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="L23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="12">
         <v>45460</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="12">
         <v>45464</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="44">
+      <c r="H24" s="43">
         <v>45460</v>
       </c>
-      <c r="I24" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="24"/>
+      <c r="I24" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="12">
         <v>45467</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="12">
         <v>45471</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J25" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="23"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="12">
         <v>45474</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="12">
         <v>45478</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="12">
         <v>45481</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="12">
         <v>45485</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="43">
         <v>45481</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J27" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="23"/>
+      <c r="I27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="12">
         <v>45488</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="12">
         <v>45492</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="K28" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28" s="23"/>
+      <c r="H28" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="12">
         <v>45495</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="12">
         <v>45499</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="65"/>
-      <c r="K29" s="19" t="s">
+      <c r="H29" s="24"/>
+      <c r="I29" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="64"/>
+      <c r="K29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="26"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>45502</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="D30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="35">
         <v>45504</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="33" t="s">
+      <c r="H30" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="34"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2429,32 +2410,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="B33" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -477,11 +477,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1차 팔로우업 / 2차 주제선정
-팀 프로젝트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Javascript 응용 / 제이쿼리
 React 기초(ES6 JS)</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -512,7 +507,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023-04-12(금) 작품발표회
+    <t>2023-04-16(화) 작품발표회
 [1차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1090,9 +1085,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,9 +1103,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,9 +1124,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,6 +1147,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1470,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1491,57 +1486,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="56" t="s">
+      <c r="H4" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="56" t="s">
+      <c r="J4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="55" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1628,7 +1623,7 @@
       <c r="G7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="54">
         <v>45345</v>
       </c>
       <c r="I7" s="50" t="s">
@@ -1669,7 +1664,7 @@
       <c r="J8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="52"/>
@@ -1701,7 +1696,7 @@
       <c r="J9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="57" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="52"/>
@@ -1735,10 +1730,10 @@
       <c r="J10" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="60"/>
+      <c r="L10" s="59"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
@@ -1761,83 +1756,83 @@
         <v>40</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="57" t="s">
         <v>26</v>
       </c>
       <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="37">
         <v>45376</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="37">
         <v>45380</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="54" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="54" t="s">
+      <c r="K12" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="59"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="L12" s="52"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>45383</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10">
         <v>45387</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="10">
         <v>45386</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="58"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
@@ -1863,15 +1858,15 @@
       <c r="I14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="65" t="s">
-        <v>112</v>
+      <c r="J14" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
@@ -1895,14 +1890,14 @@
       <c r="I15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="64" t="s">
-        <v>104</v>
+      <c r="J15" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" s="57" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1932,13 +1927,13 @@
         <v>72</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="57" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1966,13 +1961,13 @@
         <v>73</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="57" t="s">
-        <v>111</v>
+      <c r="L17" s="56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2163,7 +2158,7 @@
       <c r="I23" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="61" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
@@ -2194,13 +2189,13 @@
       <c r="H24" s="43">
         <v>45460</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="K24" s="62" t="s">
+      <c r="J24" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="60" t="s">
         <v>82</v>
       </c>
       <c r="L24" s="23"/>
@@ -2229,7 +2224,7 @@
       <c r="I25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="65" t="s">
         <v>90</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -2295,7 +2290,7 @@
       <c r="I27" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="66" t="s">
         <v>91</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -2326,13 +2321,13 @@
       <c r="H28" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="I28" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="J28" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" s="62" t="s">
+      <c r="J28" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" s="60" t="s">
         <v>82</v>
       </c>
       <c r="L28" s="22"/>
@@ -2361,7 +2356,7 @@
       <c r="I29" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="64"/>
+      <c r="J29" s="62"/>
       <c r="K29" s="18" t="s">
         <v>65</v>
       </c>
@@ -2410,32 +2405,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -240,11 +240,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 응용
-React 인트로</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -483,11 +478,6 @@
   </si>
   <si>
     <t>Javascript 응용 / 제이쿼리
-React 기초(ES6 JS)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Javascript 응용 / 제이쿼리
 React 기초</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -509,6 +499,16 @@
   <si>
     <t>2023-04-16(화) 작품발표회
 [1차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용
+React 기초(ES6 JS)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용
+React 기초(ES6 JS)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1127,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,13 +1151,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,7 +1472,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1486,41 +1492,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="B2" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1633,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1728,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="57" t="s">
         <v>26</v>
@@ -1768,7 +1774,6 @@
       <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
       <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
@@ -1792,7 +1797,7 @@
       <c r="I12" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="75" t="s">
+      <c r="J12" s="68" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="57" t="s">
@@ -1801,70 +1806,71 @@
       <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="37">
         <v>45383</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="37">
         <v>45387</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="37">
         <v>45386</v>
       </c>
-      <c r="I13" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="67" t="s">
+      <c r="I13" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="77" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="58"/>
+      <c r="K13" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>45390</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10">
         <v>45394</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="46">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="76"/>
+      <c r="I14" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="19"/>
+      <c r="K14" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="58"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="s">
@@ -1888,16 +1894,16 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1918,22 +1924,22 @@
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="43">
         <v>45407</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,20 +1960,20 @@
         <v>5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,13 +2000,13 @@
         <v>45422</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L18" s="19"/>
     </row>
@@ -2026,7 +2032,7 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>62</v>
@@ -2054,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H20" s="43">
         <v>45436</v>
@@ -2066,7 +2072,7 @@
         <v>62</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L20" s="22"/>
     </row>
@@ -2088,17 +2094,17 @@
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L21" s="19"/>
     </row>
@@ -2124,7 +2130,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>62</v>
@@ -2156,13 +2162,13 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="61" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L23" s="19"/>
     </row>
@@ -2190,13 +2196,13 @@
         <v>45460</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2222,13 +2228,13 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2254,13 +2260,13 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -2288,13 +2294,13 @@
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -2319,16 +2325,16 @@
         <v>41</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J28" s="63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K28" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -2354,7 +2360,7 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" s="62"/>
       <c r="K29" s="18" t="s">
@@ -2383,13 +2389,13 @@
         <v>41</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>65</v>
@@ -2405,32 +2411,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="B33" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -922,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1097,9 +1097,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1124,11 +1121,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1151,16 +1157,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1472,7 +1469,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,41 +1489,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1736,7 @@
       <c r="K10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="59"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
@@ -1797,7 +1794,7 @@
       <c r="I12" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="68" t="s">
+      <c r="J12" s="66" t="s">
         <v>63</v>
       </c>
       <c r="K12" s="57" t="s">
@@ -1828,81 +1825,81 @@
       <c r="H13" s="37">
         <v>45386</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="70" t="s">
         <v>110</v>
       </c>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="37">
         <v>45390</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="37">
         <v>45394</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="51">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="77" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="58"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>45397</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10">
         <v>45401</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="46">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="20" t="s">
+      <c r="H15" s="67"/>
+      <c r="I15" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="63" t="s">
+      <c r="J15" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="56" t="s">
+      <c r="L15" s="78" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2164,7 +2161,7 @@
       <c r="I23" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="60" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
@@ -2195,13 +2192,13 @@
       <c r="H24" s="43">
         <v>45460</v>
       </c>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K24" s="60" t="s">
+      <c r="K24" s="59" t="s">
         <v>81</v>
       </c>
       <c r="L24" s="23"/>
@@ -2230,7 +2227,7 @@
       <c r="I25" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="65" t="s">
+      <c r="J25" s="64" t="s">
         <v>89</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -2296,7 +2293,7 @@
       <c r="I27" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="66" t="s">
+      <c r="J27" s="65" t="s">
         <v>90</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -2327,13 +2324,13 @@
       <c r="H28" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="I28" s="64" t="s">
+      <c r="I28" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K28" s="60" t="s">
+      <c r="K28" s="59" t="s">
         <v>81</v>
       </c>
       <c r="L28" s="22"/>
@@ -2362,7 +2359,7 @@
       <c r="I29" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="J29" s="62"/>
+      <c r="J29" s="61"/>
       <c r="K29" s="18" t="s">
         <v>65</v>
       </c>
@@ -2411,32 +2408,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -509,6 +509,36 @@
   <si>
     <t>Javascript 응용
 React 기초(ES6 JS)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 팔로우업 / 2차 주제선정
+팀 프로젝트</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2차 상세코딩
+팀 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 마무리</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1124,9 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1157,7 +1184,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1468,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1489,41 +1519,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1825,13 +1855,13 @@
       <c r="H13" s="37">
         <v>45386</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="68" t="s">
         <v>101</v>
       </c>
       <c r="J13" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="69" t="s">
         <v>110</v>
       </c>
       <c r="L13" s="52"/>
@@ -1869,70 +1899,68 @@
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="37">
         <v>45397</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="37">
         <v>45401</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="51">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="67"/>
-      <c r="I15" s="68" t="s">
+      <c r="H15" s="38"/>
+      <c r="I15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="L15" s="78" t="s">
-        <v>108</v>
-      </c>
+      <c r="L15" s="78"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>45404</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>45408</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="43">
+      <c r="H16" s="10">
         <v>45407</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="67" t="s">
         <v>105</v>
       </c>
       <c r="L16" s="56" t="s">
@@ -1964,7 +1992,7 @@
         <v>72</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>69</v>
@@ -1999,13 +2027,15 @@
       <c r="I18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>62</v>
+      <c r="J18" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="56" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
@@ -2408,32 +2438,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -244,18 +244,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>React 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -517,28 +505,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2차 상세코딩
-팀 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-      </rPr>
-      <t>프로젝트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 마무리</t>
-    </r>
+    <t>도깨비 PJ v2.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용 / 제이쿼리
+React 기초</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javascript 응용 / 제이쿼리
+React 기초</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 상세코딩
+팀 프로젝트 발표(5/10-금)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1163,6 +1145,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1184,10 +1172,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1498,8 +1483,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1518,42 +1503,42 @@
     <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
         <v>17</v>
       </c>
@@ -1606,7 +1591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="49" t="s">
         <v>13</v>
       </c>
@@ -1632,11 +1617,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L6" s="52"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="49" t="s">
         <v>4</v>
       </c>
@@ -1666,11 +1651,11 @@
         <v>25</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L7" s="52"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="49" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1687,7 @@
       </c>
       <c r="L8" s="52"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="49" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1719,7 @@
       </c>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
@@ -1761,14 +1746,14 @@
         <v>21</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="58"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
         <v>14</v>
       </c>
@@ -1800,7 +1785,7 @@
       </c>
       <c r="L11" s="52"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1817,7 @@
       </c>
       <c r="L12" s="52"/>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
@@ -1856,17 +1841,17 @@
         <v>45386</v>
       </c>
       <c r="I13" s="68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="66" t="s">
         <v>63</v>
       </c>
       <c r="K13" s="69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L13" s="52"/>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="49" t="s">
         <v>53</v>
       </c>
@@ -1894,11 +1879,11 @@
         <v>63</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" s="52"/>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="49" t="s">
         <v>54</v>
       </c>
@@ -1922,86 +1907,86 @@
       <c r="I15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="77" t="s">
-        <v>109</v>
+      <c r="J15" s="70" t="s">
+        <v>106</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="78"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="37">
         <v>45404</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="37">
         <v>45408</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="10">
+      <c r="G16" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="37">
         <v>45407</v>
       </c>
-      <c r="I16" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="67" t="s">
+      <c r="I16" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>45411</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10">
         <v>45415</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="G17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>50</v>
       </c>
@@ -2025,19 +2010,19 @@
         <v>45422</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>113</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>49</v>
       </c>
@@ -2059,7 +2044,7 @@
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>62</v>
@@ -2069,7 +2054,7 @@
       </c>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
         <v>52</v>
       </c>
@@ -2087,7 +2072,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="43">
         <v>45436</v>
@@ -2099,11 +2084,11 @@
         <v>62</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
         <v>51</v>
       </c>
@@ -2121,21 +2106,21 @@
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>46</v>
       </c>
@@ -2157,7 +2142,7 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>62</v>
@@ -2167,7 +2152,7 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>57</v>
       </c>
@@ -2189,17 +2174,17 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="2:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
@@ -2223,17 +2208,17 @@
         <v>45460</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J24" s="62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K24" s="59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>60</v>
       </c>
@@ -2255,17 +2240,17 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J25" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L25" s="23"/>
     </row>
-    <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
         <v>42</v>
       </c>
@@ -2287,17 +2272,17 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L26" s="22"/>
     </row>
-    <row r="27" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>55</v>
       </c>
@@ -2321,17 +2306,17 @@
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J27" s="65" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L27" s="22"/>
     </row>
-    <row r="28" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>56</v>
       </c>
@@ -2352,20 +2337,20 @@
         <v>41</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J28" s="62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K28" s="59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2372,7 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J29" s="61"/>
       <c r="K29" s="18" t="s">
@@ -2395,7 +2380,7 @@
       </c>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="26" t="s">
         <v>44</v>
       </c>
@@ -2416,20 +2401,20 @@
         <v>41</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>65</v>
       </c>
       <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2437,33 +2422,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="B33" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -500,11 +500,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1차 팔로우업 / 2차 주제선정
-팀 프로젝트</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 PJ v2.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -519,8 +514,37 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2차 상세코딩
-팀 프로젝트 발표(5/10-금)</t>
+    <r>
+      <t>2차 주제선정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / 분석설계</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1차 팔로우업 / 2차 주제선정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀 프로젝트 발표 : 5월10일(금)</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1103,9 +1127,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,6 +1172,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,9 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1483,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1682,7 +1703,7 @@
       <c r="J8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="56" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="52"/>
@@ -1714,7 +1735,7 @@
       <c r="J9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="56" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="52"/>
@@ -1748,10 +1769,10 @@
       <c r="J10" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="58"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="49" t="s">
@@ -1774,13 +1795,13 @@
         <v>40</v>
       </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="56" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="56" t="s">
         <v>26</v>
       </c>
       <c r="L11" s="52"/>
@@ -1806,13 +1827,13 @@
         <v>40</v>
       </c>
       <c r="H12" s="38"/>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="66" t="s">
+      <c r="J12" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="56" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="52"/>
@@ -1840,13 +1861,13 @@
       <c r="H13" s="37">
         <v>45386</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="66" t="s">
+      <c r="J13" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="68" t="s">
         <v>107</v>
       </c>
       <c r="L13" s="52"/>
@@ -1875,7 +1896,7 @@
       <c r="I14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="65" t="s">
         <v>63</v>
       </c>
       <c r="K14" s="53" t="s">
@@ -1907,13 +1928,13 @@
       <c r="I15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="69" t="s">
         <v>106</v>
       </c>
       <c r="K15" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="71"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
@@ -1939,86 +1960,86 @@
         <v>45407</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="53" t="s">
         <v>100</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="37">
         <v>45411</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="37">
         <v>45415</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="67" t="s">
+      <c r="H17" s="37"/>
+      <c r="I17" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="67" t="s">
+      <c r="J17" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>45419</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>45422</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="10">
         <v>45422</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="56" t="s">
+      <c r="K18" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="71" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2046,8 +2067,8 @@
       <c r="I19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>62</v>
+      <c r="J19" s="21" t="s">
+        <v>112</v>
       </c>
       <c r="K19" s="18" t="s">
         <v>38</v>
@@ -2176,7 +2197,7 @@
       <c r="I23" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="59" t="s">
         <v>62</v>
       </c>
       <c r="K23" s="20" t="s">
@@ -2207,13 +2228,13 @@
       <c r="H24" s="43">
         <v>45460</v>
       </c>
-      <c r="I24" s="63" t="s">
+      <c r="I24" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="58" t="s">
         <v>78</v>
       </c>
       <c r="L24" s="23"/>
@@ -2242,7 +2263,7 @@
       <c r="I25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="63" t="s">
         <v>86</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -2308,7 +2329,7 @@
       <c r="I27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="64" t="s">
         <v>87</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -2339,13 +2360,13 @@
       <c r="H28" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="62" t="s">
+      <c r="J28" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="59" t="s">
+      <c r="K28" s="58" t="s">
         <v>78</v>
       </c>
       <c r="L28" s="22"/>
@@ -2374,7 +2395,7 @@
       <c r="I29" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="61"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="18" t="s">
         <v>65</v>
       </c>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -545,6 +545,12 @@
       </rPr>
       <t>팀 프로젝트 발표 : 5월10일(금)</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>취업특강
+5/22(수)
+PM2:30</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -958,7 +964,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1172,9 +1178,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,6 +1197,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1520,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1525,41 +1540,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -2007,73 +2022,73 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="37">
         <v>45419</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="37">
         <v>45422</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="37">
         <v>45422</v>
       </c>
-      <c r="I18" s="66" t="s">
+      <c r="I18" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>45425</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>45429</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="46">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="19"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
@@ -2107,7 +2122,9 @@
       <c r="K20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="L20" s="22"/>
+      <c r="L20" s="78" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
@@ -2444,32 +2461,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -148,10 +148,6 @@
     <t>Point Learning Ⅱ Project</t>
   </si>
   <si>
-    <t>React 응용
-PHP 연결구현 + DB 연결구현</t>
-  </si>
-  <si>
     <t>Programming(php,Laravel)</t>
   </si>
   <si>
@@ -249,10 +245,6 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -509,11 +501,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Javascript 응용 / 제이쿼리
-React 기초</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2차 주제선정</t>
     </r>
@@ -551,6 +538,15 @@
     <t>취업특강
 5/22(수)
 PM2:30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>React 응용
+PHP 연결구현 + DB 연결구현</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +960,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1178,6 +1174,15 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,18 +1202,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1513,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1540,41 +1533,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="B2" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1582,16 +1575,16 @@
         <v>20</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -1624,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1653,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1687,7 +1680,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1782,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>26</v>
@@ -1807,14 +1800,14 @@
         <v>5</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="56" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>26</v>
@@ -1839,14 +1832,14 @@
         <v>5</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="56" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>28</v>
@@ -1877,19 +1870,19 @@
         <v>45386</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="37">
         <v>45390</v>
@@ -1909,19 +1902,19 @@
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="37">
         <v>45397</v>
@@ -1941,19 +1934,19 @@
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L15" s="70"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="37">
         <v>45404</v>
@@ -1969,27 +1962,27 @@
         <v>5</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="37">
         <v>45407</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="37">
         <v>45411</v>
@@ -2005,25 +1998,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="53" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="37">
         <v>45419</v>
@@ -2039,28 +2032,28 @@
         <v>4</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="37">
         <v>45422</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="L18" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="10">
         <v>45425</v>
@@ -2080,19 +2073,19 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="81"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="12">
         <v>45432</v>
@@ -2108,27 +2101,27 @@
         <v>5</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H20" s="43">
         <v>45436</v>
       </c>
       <c r="I20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="K20" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>45439</v>
@@ -2144,23 +2137,23 @@
         <v>5</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="12">
         <v>45446</v>
@@ -2180,19 +2173,19 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="12">
         <v>45453</v>
@@ -2212,19 +2205,19 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>77</v>
       </c>
       <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="12">
         <v>45460</v>
@@ -2246,19 +2239,19 @@
         <v>45460</v>
       </c>
       <c r="I24" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="58" t="s">
         <v>76</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>78</v>
       </c>
       <c r="L24" s="23"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="12">
         <v>45467</v>
@@ -2278,19 +2271,19 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="12">
         <v>45474</v>
@@ -2310,19 +2303,19 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="12">
         <v>45481</v>
@@ -2344,19 +2337,19 @@
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J27" s="64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="12">
         <v>45488</v>
@@ -2372,25 +2365,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12">
         <v>45495</v>
@@ -2406,21 +2399,21 @@
         <v>5</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J29" s="60"/>
       <c r="K29" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="35">
         <v>45502</v>
@@ -2436,19 +2429,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L30" s="33"/>
     </row>
@@ -2461,32 +2454,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="76"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="B33" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -1174,15 +1174,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,6 +1193,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1513,7 +1513,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,41 +1533,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -2051,71 +2051,71 @@
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="37">
         <v>45425</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="37">
         <v>45429</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="51">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="37"/>
+      <c r="I19" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>45432</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>45436</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="10">
         <v>45436</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="20" t="s">
+      <c r="K20" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="79" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2454,32 +2454,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -214,9 +214,6 @@
     <t>21주차</t>
   </si>
   <si>
-    <t>보그 PJ</t>
-  </si>
-  <si>
     <t>2차 상세코딩</t>
   </si>
   <si>
@@ -245,26 +242,6 @@
   </si>
   <si>
     <t>도깨비 PJ v2. / 보그 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>React 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DC PJ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> / Pilot PJ</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -545,8 +522,21 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>React 응용
 PHP 연결구현 + DB 연결구현</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+DC PJ / Pilot PJ</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1174,6 +1164,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,14 +1188,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1512,8 +1502,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,41 +1523,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="B2" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="55" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1571,7 @@
         <v>22</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="55" t="s">
         <v>44</v>
@@ -1617,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1680,7 +1670,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1775,7 +1765,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>26</v>
@@ -1807,7 +1797,7 @@
         <v>35</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>26</v>
@@ -1839,7 +1829,7 @@
         <v>35</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>28</v>
@@ -1870,13 +1860,13 @@
         <v>45386</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J13" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L13" s="52"/>
     </row>
@@ -1902,13 +1892,13 @@
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L14" s="52"/>
     </row>
@@ -1934,13 +1924,13 @@
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L15" s="70"/>
     </row>
@@ -1962,22 +1952,22 @@
         <v>5</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H16" s="37">
         <v>45407</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,20 +1988,20 @@
         <v>5</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="70" t="s">
         <v>100</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2038,16 +2028,16 @@
         <v>45422</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K18" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="70" t="s">
         <v>100</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -2072,84 +2062,84 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="53" t="s">
-        <v>112</v>
-      </c>
       <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="37">
         <v>45432</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="37">
         <v>45436</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="10">
+      <c r="G20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="37">
         <v>45436</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="79" t="s">
-        <v>111</v>
+      <c r="K20" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="80" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>45439</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>45443</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="19"/>
+      <c r="G21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="79"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
@@ -2173,13 +2163,13 @@
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="19"/>
     </row>
@@ -2205,13 +2195,13 @@
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J23" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L23" s="19"/>
     </row>
@@ -2239,13 +2229,13 @@
         <v>45460</v>
       </c>
       <c r="I24" s="62" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2271,13 +2261,13 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2303,13 +2293,13 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -2337,13 +2327,13 @@
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J27" s="64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -2368,16 +2358,16 @@
         <v>40</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I28" s="62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -2403,11 +2393,11 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J29" s="60"/>
       <c r="K29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="25"/>
     </row>
@@ -2432,16 +2422,16 @@
         <v>40</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="33"/>
     </row>
@@ -2454,32 +2444,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="B33" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -117,10 +117,6 @@
 Javascript 기본</t>
   </si>
   <si>
-    <t>Point Learning Ⅱ Project
-Programming(Flutter)</t>
-  </si>
-  <si>
     <t>Point Learning Ⅰ Project
  Programming(React.js)</t>
   </si>
@@ -265,30 +261,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Flutter 응용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> / 프로젝트 심화</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>구직활동</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -302,22 +274,6 @@
   </si>
   <si>
     <t>DC PJ / Pilot PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3차 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 리액트PJ 완성도 높이기</t>
-    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -439,11 +395,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023-06-21(금) 작품발표회
-[2차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2023-07-19(금) 작품발표회
 [3차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -537,6 +488,30 @@
   <si>
     <t>보그 PJ
 DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-28(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 응용 / 프로젝트 심화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅱ Project</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1128,9 +1103,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,9 +1112,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1135,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,12 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1503,7 +1472,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1524,7 +1493,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
@@ -1565,16 +1534,16 @@
         <v>20</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
@@ -1607,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -1636,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="53" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L6" s="52"/>
     </row>
@@ -1670,7 +1639,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L7" s="52"/>
     </row>
@@ -1699,10 +1668,10 @@
         <v>21</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8" s="52"/>
     </row>
@@ -1734,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="K9" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="52"/>
     </row>
@@ -1765,7 +1734,7 @@
         <v>21</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K10" s="56" t="s">
         <v>26</v>
@@ -1790,14 +1759,14 @@
         <v>5</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K11" s="56" t="s">
         <v>26</v>
@@ -1822,14 +1791,14 @@
         <v>5</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="65" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="K12" s="56" t="s">
         <v>28</v>
@@ -1854,25 +1823,25 @@
         <v>5</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="37">
         <v>45386</v>
       </c>
-      <c r="I13" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>102</v>
+      <c r="I13" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="L13" s="52"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="37">
         <v>45390</v>
@@ -1888,23 +1857,23 @@
         <v>4</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>60</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L14" s="52"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="37">
         <v>45397</v>
@@ -1920,23 +1889,23 @@
         <v>5</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>101</v>
+        <v>65</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="70"/>
+        <v>91</v>
+      </c>
+      <c r="L15" s="68"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="37">
         <v>45404</v>
@@ -1952,27 +1921,27 @@
         <v>5</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H16" s="37">
         <v>45407</v>
       </c>
       <c r="I16" s="53" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="L16" s="70" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="37">
         <v>45411</v>
@@ -1988,25 +1957,25 @@
         <v>5</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="37">
         <v>45419</v>
@@ -2022,27 +1991,27 @@
         <v>4</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="37">
         <v>45422</v>
       </c>
       <c r="I18" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="53" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="70" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="37">
         <v>45425</v>
@@ -2062,19 +2031,19 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>106</v>
+        <v>66</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>100</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="37">
         <v>45432</v>
@@ -2090,28 +2059,28 @@
         <v>5</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H20" s="37">
         <v>45436</v>
       </c>
       <c r="I20" s="53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J20" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="L20" s="80" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10">
         <v>45439</v>
@@ -2127,23 +2096,23 @@
         <v>5</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="66" t="s">
-        <v>113</v>
+      <c r="I21" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="J21" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" s="79"/>
+        <v>59</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="12">
         <v>45446</v>
@@ -2159,23 +2128,23 @@
         <v>4</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="12">
         <v>45453</v>
@@ -2191,23 +2160,23 @@
         <v>5</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="12">
         <v>45460</v>
@@ -2223,25 +2192,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="H24" s="43">
         <v>45460</v>
       </c>
-      <c r="I24" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>98</v>
+      <c r="I24" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="K24" s="58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="12">
         <v>45467</v>
@@ -2257,23 +2226,23 @@
         <v>5</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="63" t="s">
-        <v>81</v>
+        <v>68</v>
+      </c>
+      <c r="J25" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="12">
         <v>45474</v>
@@ -2289,23 +2258,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="L26" s="22"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="12">
         <v>45481</v>
@@ -2321,25 +2290,25 @@
         <v>5</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="43">
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="64" t="s">
-        <v>82</v>
+        <v>68</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="L27" s="22"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="12">
         <v>45488</v>
@@ -2355,25 +2324,25 @@
         <v>5</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="I28" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="K28" s="58" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="L28" s="22"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="12">
         <v>45495</v>
@@ -2389,21 +2358,21 @@
         <v>5</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J29" s="60"/>
+        <v>75</v>
+      </c>
+      <c r="J29" s="59"/>
       <c r="K29" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L29" s="25"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="35">
         <v>45502</v>
@@ -2419,19 +2388,19 @@
         <v>3</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" s="33"/>
     </row>
@@ -2459,7 +2428,7 @@
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B33" s="75" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" s="75"/>
       <c r="D33" s="75"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -253,14 +253,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 심화</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>구직활동</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -477,41 +469,62 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+DC PJ / Pilot PJ</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-28(금) 작품발표회
+[2차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 응용 / 프로젝트 심화</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
+  </si>
+  <si>
+    <t>프로젝트 심화 / Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅱ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>React 응용
 PHP 연결구현 + DB 연결구현</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ
-DC PJ / Pilot PJ</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-06-28(금) 작품발표회
-[2차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flutter 응용 / 프로젝트 심화</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Point Learning Ⅱ Project</t>
+    <r>
+      <t>프로젝트 심화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> / React 응용
+PHP 연결구현 + DB 연결구현</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 심화 / React 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +610,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,12 +643,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1028,76 +1035,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,32 +1119,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,6 +1166,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,7 +1479,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1492,57 +1499,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="B2" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="54" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1550,597 +1557,597 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>45329</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="37">
+      <c r="D5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="36">
         <v>45330</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="41" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>45335</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="37">
+      <c r="D6" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="36">
         <v>45338</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="52"/>
+      <c r="K6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>45341</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="D7" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="36">
         <v>45345</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="53">
         <v>45345</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="52"/>
+      <c r="K7" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>45348</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="D8" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="36">
         <v>45351</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="50" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="52"/>
+      <c r="L8" s="51"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>45355</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="36">
         <v>45359</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="37"/>
+      <c r="I9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="52"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>45362</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="37">
+      <c r="D10" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="36">
         <v>45366</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>45363</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="56" t="s">
+      <c r="J10" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="57"/>
+      <c r="L10" s="56"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>45369</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="37">
+      <c r="D11" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="36">
         <v>45373</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="56" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="51"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>45376</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="37">
+      <c r="D12" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="36">
         <v>45380</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="37"/>
+      <c r="I12" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="52"/>
+      <c r="L12" s="51"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>45383</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="37">
+      <c r="D13" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="36">
         <v>45387</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>45386</v>
       </c>
-      <c r="I13" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="I13" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" s="52"/>
+      <c r="K13" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>45390</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="D14" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="36">
         <v>45394</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="53" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="L14" s="52"/>
+      <c r="K14" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="51"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>45397</v>
       </c>
-      <c r="D15" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="37">
+      <c r="D15" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="36">
         <v>45401</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="53" t="s">
+      <c r="H15" s="37"/>
+      <c r="I15" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="68"/>
+      <c r="J15" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>45404</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="37">
+      <c r="D16" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="36">
         <v>45408</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="37">
+      <c r="G16" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="36">
         <v>45407</v>
       </c>
-      <c r="I16" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="L16" s="68" t="s">
-        <v>94</v>
+      <c r="I16" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>45411</v>
       </c>
-      <c r="D17" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="37">
+      <c r="D17" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="36">
         <v>45415</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="53" t="s">
+      <c r="G17" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="53" t="s">
+      <c r="J17" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="53" t="s">
+      <c r="L17" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="68" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>45419</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="37">
+      <c r="D18" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="36">
         <v>45422</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>45422</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="53" t="s">
+      <c r="J18" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="68" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>45425</v>
       </c>
-      <c r="D19" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="37">
+      <c r="D19" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="36">
         <v>45429</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="53" t="s">
+      <c r="H19" s="36"/>
+      <c r="I19" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="52"/>
+      <c r="J19" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="51"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>45432</v>
       </c>
-      <c r="D20" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="37">
+      <c r="D20" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="36">
         <v>45436</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="37">
+      <c r="G20" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="36">
         <v>45436</v>
       </c>
-      <c r="I20" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="50" t="s">
+      <c r="I20" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="71" t="s">
+      <c r="K20" s="52" t="s">
         <v>102</v>
       </c>
+      <c r="L20" s="69" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="36">
         <v>45439</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="36">
         <v>45443</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="45" t="s">
+      <c r="G21" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="70"/>
+      <c r="K21" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="51"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>45446</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="10">
         <v>45450</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="45">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="16" t="s">
+      <c r="H22" s="70"/>
+      <c r="I22" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="19"/>
+      <c r="K22" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="68"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
@@ -2170,7 +2177,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="L23" s="19"/>
     </row>
@@ -2192,19 +2199,19 @@
         <v>5</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="43">
+        <v>109</v>
+      </c>
+      <c r="H24" s="42">
         <v>45460</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="60" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="58" t="s">
-        <v>72</v>
+      <c r="K24" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="L24" s="23"/>
     </row>
@@ -2232,11 +2239,11 @@
       <c r="I25" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="60" t="s">
-        <v>108</v>
+      <c r="J25" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L25" s="23"/>
     </row>
@@ -2265,10 +2272,10 @@
         <v>68</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L26" s="22"/>
     </row>
@@ -2292,17 +2299,17 @@
       <c r="G27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="42">
         <v>45481</v>
       </c>
       <c r="I27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="62" t="s">
-        <v>77</v>
+      <c r="J27" s="61" t="s">
+        <v>75</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L27" s="22"/>
     </row>
@@ -2326,17 +2333,17 @@
       <c r="G28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="I28" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>109</v>
+      <c r="H28" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="57" t="s">
+        <v>106</v>
       </c>
       <c r="L28" s="22"/>
     </row>
@@ -2362,9 +2369,9 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="59"/>
+        <v>73</v>
+      </c>
+      <c r="J29" s="58"/>
       <c r="K29" s="18" t="s">
         <v>62</v>
       </c>
@@ -2374,13 +2381,13 @@
       <c r="B30" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="34">
         <v>45502</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="34">
         <v>45504</v>
       </c>
       <c r="F30" s="28">
@@ -2390,14 +2397,14 @@
       <c r="G30" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="48" t="s">
-        <v>85</v>
+      <c r="H30" s="47" t="s">
+        <v>83</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J30" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K30" s="32" t="s">
         <v>62</v>
@@ -2413,32 +2420,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
+      <c r="B33" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -932,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -972,9 +972,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -989,9 +986,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1146,6 +1140,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1168,7 +1165,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,7 +1476,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1499,57 +1496,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="54" t="s">
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="52" t="s">
         <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1557,859 +1554,859 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="34">
         <v>45329</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="34">
         <v>45330</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="40" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="39" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="34">
         <v>45335</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="D6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="34">
         <v>45338</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="52" t="s">
+      <c r="K6" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="51"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="34">
         <v>45341</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="D7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="34">
         <v>45345</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="51">
         <v>45345</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="52" t="s">
+      <c r="K7" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="L7" s="51"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="34">
         <v>45348</v>
       </c>
-      <c r="D8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="D8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="34">
         <v>45351</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="48">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="49" t="s">
+      <c r="H8" s="34"/>
+      <c r="I8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="55" t="s">
+      <c r="K8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="51"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="34">
         <v>45355</v>
       </c>
-      <c r="D9" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="36">
+      <c r="D9" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="34">
         <v>45359</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="49" t="s">
+      <c r="H9" s="35"/>
+      <c r="I9" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="51"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="34">
         <v>45362</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34">
         <v>45366</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>45363</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="J10" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="56"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="34">
         <v>45369</v>
       </c>
-      <c r="D11" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="D11" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="34">
         <v>45373</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="34"/>
+      <c r="I11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="51"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="34">
         <v>45376</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="D12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="34">
         <v>45380</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="35"/>
+      <c r="I12" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="51"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="34">
         <v>45383</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="D13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="34">
         <v>45387</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="34">
         <v>45386</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="51"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="34">
         <v>45390</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="34">
         <v>45394</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="48">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="52" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="52" t="s">
+      <c r="K14" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="51"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="34">
         <v>45397</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="34">
         <v>45401</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="48">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="52" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="52" t="s">
+      <c r="K15" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="34">
         <v>45404</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="34">
         <v>45408</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="34">
         <v>45407</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="52" t="s">
+      <c r="J16" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="52" t="s">
+      <c r="K16" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="66" t="s">
+      <c r="L16" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="34">
         <v>45411</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="D17" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="34">
         <v>45415</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="52" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J17" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="66" t="s">
+      <c r="L17" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>45419</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="36">
+      <c r="D18" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="34">
         <v>45422</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="34">
         <v>45422</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="52" t="s">
+      <c r="K18" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="64" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="34">
         <v>45425</v>
       </c>
-      <c r="D19" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="36">
+      <c r="D19" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="34">
         <v>45429</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="48">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="52" t="s">
+      <c r="H19" s="34"/>
+      <c r="I19" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="52" t="s">
+      <c r="K19" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="51"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="34">
         <v>45432</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="D20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="34">
         <v>45436</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="34">
         <v>45436</v>
       </c>
-      <c r="I20" s="52" t="s">
+      <c r="I20" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="52" t="s">
+      <c r="K20" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="67" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>45439</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="D21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="34">
         <v>45443</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="52" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="L21" s="51"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="34">
         <v>45446</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="34">
         <v>45450</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="48">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="78" t="s">
+      <c r="H22" s="35"/>
+      <c r="I22" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="44" t="s">
+      <c r="J22" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="78" t="s">
+      <c r="K22" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L22" s="68"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>45453</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10">
         <v>45457</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="43">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="21" t="s">
+      <c r="H23" s="68"/>
+      <c r="I23" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="20" t="s">
+      <c r="K23" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="19"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="12">
         <v>45460</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="12">
         <v>45464</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="40">
         <v>45460</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="23"/>
+      <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="12">
         <v>45467</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="12">
         <v>45471</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="21" t="s">
+      <c r="H25" s="22"/>
+      <c r="I25" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="59" t="s">
+      <c r="J25" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="23"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="12">
         <v>45474</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="12">
         <v>45478</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="22"/>
+      <c r="I26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="22"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="12">
         <v>45481</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="12">
         <v>45485</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="40">
         <v>45481</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="22"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="12">
         <v>45488</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="12">
         <v>45492</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="I28" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="59" t="s">
+      <c r="J28" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="K28" s="57" t="s">
+      <c r="K28" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="L28" s="22"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="12">
         <v>45495</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="12">
         <v>45499</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="24"/>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="18" t="s">
+      <c r="J29" s="56"/>
+      <c r="K29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="23"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="32">
         <v>45502</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="34">
+      <c r="D30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="32">
         <v>45504</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="L30" s="33"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2420,32 +2417,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -121,17 +121,10 @@
  Programming(React.js)</t>
   </si>
   <si>
-    <t>Programming(Flutter)
-Point Learning Ⅲ Project</t>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
   </si>
   <si>
-    <t>Programming(Flutter)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Programming(React.js)</t>
   </si>
   <si>
@@ -217,9 +210,6 @@
   </si>
   <si>
     <t>오리엔테이션</t>
-  </si>
-  <si>
-    <t>프로젝트 심화</t>
   </si>
   <si>
     <t>공식 프로젝트</t>
@@ -483,13 +473,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Flutter 응용 / 프로젝트 심화</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 심화 / Flutter 기본 및 응용</t>
-  </si>
-  <si>
     <t>프로젝트 심화 / Flutter 기본</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -525,6 +508,35 @@
   </si>
   <si>
     <t>프로젝트 심화 / React 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅲ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅲ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming(Flutter)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming(Flutter)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅲ Project 
+Programming(Flutter)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 기본</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flutter 응용</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -932,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -984,9 +996,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1023,9 +1032,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,6 +1149,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,9 +1171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1475,8 +1481,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1496,691 +1502,691 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
+      <c r="B2" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="52" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="52" t="s">
+      <c r="H4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="52" t="s">
-        <v>43</v>
+      <c r="J4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="32">
         <v>45329</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="D5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32">
         <v>45330</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="38" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="39" t="s">
-        <v>61</v>
+      <c r="L5" s="37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>45335</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="D6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="32">
         <v>45338</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="49"/>
+      <c r="K6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="32">
         <v>45341</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="D7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="32">
         <v>45345</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="49">
         <v>45345</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="49"/>
+      <c r="K7" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="47"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>45348</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="D8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="32">
         <v>45351</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="46">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="47" t="s">
+      <c r="H8" s="32"/>
+      <c r="I8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="49"/>
+      <c r="J8" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="32">
         <v>45355</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="32">
         <v>45359</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="47" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="49"/>
+      <c r="K9" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="32">
         <v>45362</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="32">
         <v>45366</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="32">
         <v>45363</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="53" t="s">
+      <c r="J10" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="54"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="32">
         <v>45369</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="D11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="32">
         <v>45373</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="53" t="s">
+      <c r="G11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="32"/>
+      <c r="I11" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="49"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <v>45376</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="D12" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="32">
         <v>45380</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="53" t="s">
+      <c r="G12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="32">
         <v>45383</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="D13" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="32">
         <v>45387</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="32">
         <v>45386</v>
       </c>
-      <c r="I13" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="49"/>
+      <c r="I13" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="34">
+      <c r="B14" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="32">
         <v>45390</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="D14" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="32">
         <v>45394</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="46">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="49"/>
+      <c r="G14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="B15" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="32">
         <v>45397</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="D15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="32">
         <v>45401</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="46">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="L15" s="64"/>
+      <c r="G15" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="62"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="34">
+      <c r="B16" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="32">
         <v>45404</v>
       </c>
-      <c r="D16" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="D16" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="32">
         <v>45408</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="34">
+      <c r="G16" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="32">
         <v>45407</v>
       </c>
-      <c r="I16" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>92</v>
+      <c r="I16" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="34">
+      <c r="B17" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="32">
         <v>45411</v>
       </c>
-      <c r="D17" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="D17" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="32">
         <v>45415</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>92</v>
+      <c r="G17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="B18" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="32">
         <v>45419</v>
       </c>
-      <c r="D18" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="D18" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="32">
         <v>45422</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="46">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="34">
+      <c r="G18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="32">
         <v>45422</v>
       </c>
-      <c r="I18" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>92</v>
+      <c r="I18" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="34">
+      <c r="B19" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="32">
         <v>45425</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="D19" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="32">
         <v>45429</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="46">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="65" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="47"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="34">
+      <c r="B20" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="32">
         <v>45432</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="34">
+      <c r="D20" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="32">
         <v>45436</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="G20" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="32">
         <v>45436</v>
       </c>
-      <c r="I20" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="67" t="s">
+      <c r="I20" s="48" t="s">
         <v>100</v>
       </c>
+      <c r="J20" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="65" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="32">
         <v>45439</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="34">
+      <c r="D21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="32">
         <v>45443</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="49"/>
+      <c r="G21" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="47"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="34">
+      <c r="B22" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="32">
         <v>45446</v>
       </c>
-      <c r="D22" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="34">
+      <c r="D22" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="32">
         <v>45450</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="46">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="K22" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="L22" s="49"/>
+      <c r="G22" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="41" t="s">
-        <v>55</v>
+      <c r="B23" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C23" s="10">
         <v>45453</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="10">
         <v>45457</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="66"/>
+        <v>34</v>
+      </c>
+      <c r="H23" s="66"/>
+      <c r="I23" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="12">
         <v>45460</v>
@@ -2196,25 +2202,25 @@
         <v>5</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="40">
+        <v>104</v>
+      </c>
+      <c r="H24" s="38">
         <v>45460</v>
       </c>
-      <c r="I24" s="58" t="s">
-        <v>70</v>
+      <c r="I24" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="12">
         <v>45467</v>
@@ -2230,23 +2236,23 @@
         <v>5</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="12">
         <v>45474</v>
@@ -2262,23 +2268,23 @@
         <v>5</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="L26" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="12">
         <v>45481</v>
@@ -2294,25 +2300,25 @@
         <v>5</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="40">
+        <v>110</v>
+      </c>
+      <c r="H27" s="38">
         <v>45481</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="I27" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L27" s="20"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="12">
         <v>45488</v>
@@ -2327,26 +2333,26 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="K28" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28" s="20"/>
+      <c r="G28" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="12">
         <v>45495</v>
@@ -2362,51 +2368,51 @@
         <v>5</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J29" s="56"/>
+        <v>111</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="54"/>
       <c r="K29" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="B30" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="30">
         <v>45502</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="32">
+      <c r="D30" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="30">
         <v>45504</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="29" t="s">
+      <c r="G30" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" s="31"/>
+      <c r="J30" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2417,32 +2423,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
+      <c r="B33" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -944,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,9 +1104,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,21 +1134,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,6 +1156,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1476,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,41 +1496,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="50" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1801,7 @@
       <c r="I12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="57" t="s">
         <v>58</v>
       </c>
       <c r="K12" s="51" t="s">
@@ -1838,13 +1832,13 @@
       <c r="H13" s="32">
         <v>45386</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="60" t="s">
+      <c r="K13" s="59" t="s">
         <v>91</v>
       </c>
       <c r="L13" s="47"/>
@@ -1873,7 +1867,7 @@
       <c r="I14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="57" t="s">
         <v>58</v>
       </c>
       <c r="K14" s="48" t="s">
@@ -1905,13 +1899,13 @@
       <c r="I15" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="60" t="s">
         <v>90</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="62"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="44" t="s">
@@ -1945,7 +1939,7 @@
       <c r="K16" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="62" t="s">
+      <c r="L16" s="61" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1979,7 +1973,7 @@
       <c r="K17" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="61" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2015,7 +2009,7 @@
       <c r="K18" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="61" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2043,7 +2037,7 @@
       <c r="I19" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="62" t="s">
         <v>95</v>
       </c>
       <c r="K19" s="48" t="s">
@@ -2083,7 +2077,7 @@
       <c r="K20" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="63" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2152,71 +2146,71 @@
       <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="32">
         <v>45453</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="32">
         <v>45457</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="46">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="68" t="s">
+      <c r="H23" s="33"/>
+      <c r="I23" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="K23" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="64"/>
+      <c r="L23" s="47"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>45460</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10">
         <v>45464</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="10">
         <v>45460</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="20"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
@@ -2242,7 +2236,7 @@
       <c r="I25" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="55" t="s">
+      <c r="J25" s="54" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="17" t="s">
@@ -2308,7 +2302,7 @@
       <c r="I27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="56" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="17" t="s">
@@ -2339,10 +2333,10 @@
       <c r="H28" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="54" t="s">
         <v>88</v>
       </c>
       <c r="K28" s="17" t="s">
@@ -2374,7 +2368,7 @@
       <c r="I29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="54"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="17" t="s">
         <v>114</v>
       </c>
@@ -2423,32 +2417,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -944,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,9 +1005,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,6 +1134,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,13 +1158,19 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1482,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1531,22 +1537,22 @@
       </c>
       <c r="D4" s="65"/>
       <c r="E4" s="65"/>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="49" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1554,695 +1560,695 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>45329</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32">
+      <c r="D5" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="31">
         <v>45330</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="36" t="s">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>45335</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="31">
         <v>45338</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="47"/>
+      <c r="L6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>45341</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="32">
+      <c r="D7" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="31">
         <v>45345</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>45345</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="47"/>
+      <c r="L7" s="46"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>45348</v>
       </c>
-      <c r="D8" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="32">
+      <c r="D8" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="31">
         <v>45351</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="45" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="51" t="s">
+      <c r="K8" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="47"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>45355</v>
       </c>
-      <c r="D9" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="32">
+      <c r="D9" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="31">
         <v>45359</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="47"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>45362</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="32">
+      <c r="D10" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="31">
         <v>45366</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>45363</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="K10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>45369</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="32">
+      <c r="D11" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="31">
         <v>45373</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="51" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="K11" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="47"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>45376</v>
       </c>
-      <c r="D12" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="32">
+      <c r="D12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="31">
         <v>45380</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="33"/>
-      <c r="I12" s="51" t="s">
+      <c r="H12" s="32"/>
+      <c r="I12" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="J12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="51" t="s">
+      <c r="K12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="47"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>45383</v>
       </c>
-      <c r="D13" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="32">
+      <c r="D13" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="31">
         <v>45387</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="31">
         <v>45386</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I13" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="J13" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>45390</v>
       </c>
-      <c r="D14" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="32">
+      <c r="D14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="31">
         <v>45394</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="32"/>
+      <c r="I14" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <v>45397</v>
       </c>
-      <c r="D15" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="D15" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="31">
         <v>45401</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="32"/>
+      <c r="I15" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="60" t="s">
+      <c r="J15" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="61"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>45404</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="31">
         <v>45408</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31">
         <v>45407</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="48" t="s">
+      <c r="K16" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="61" t="s">
+      <c r="L16" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>45411</v>
       </c>
-      <c r="D17" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="32">
+      <c r="D17" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="31">
         <v>45415</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>45419</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="32">
+      <c r="D18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="31">
         <v>45422</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="45">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="31">
         <v>45422</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="I18" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>45425</v>
       </c>
-      <c r="D19" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="31">
         <v>45429</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="45">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="31"/>
+      <c r="I19" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="47"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>45432</v>
       </c>
-      <c r="D20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="32">
+      <c r="D20" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="31">
         <v>45436</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="31">
         <v>45436</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="48" t="s">
+      <c r="K20" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="63" t="s">
+      <c r="L20" s="62" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>45439</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="D21" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="31">
         <v>45443</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="48" t="s">
+      <c r="H21" s="31"/>
+      <c r="I21" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="48" t="s">
+      <c r="K21" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="47"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>45446</v>
       </c>
-      <c r="D22" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="32">
+      <c r="D22" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="31">
         <v>45450</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="45">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="48" t="s">
+      <c r="H22" s="32"/>
+      <c r="I22" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="47"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>45453</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="32">
+      <c r="D23" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="31">
         <v>45457</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="62" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="31">
         <v>45460</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="31">
         <v>45464</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="31">
         <v>45460</v>
       </c>
-      <c r="I24" s="71" t="s">
+      <c r="I24" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="73"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <v>45467</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10">
         <v>45471</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="18" t="s">
+      <c r="H25" s="71"/>
+      <c r="I25" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="54" t="s">
+      <c r="J25" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="20"/>
+      <c r="L25" s="63"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
@@ -2264,7 +2270,7 @@
       <c r="G26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="21"/>
+      <c r="H26" s="20"/>
       <c r="I26" s="18" t="s">
         <v>65</v>
       </c>
@@ -2296,13 +2302,13 @@
       <c r="G27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>45481</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="55" t="s">
         <v>72</v>
       </c>
       <c r="K27" s="17" t="s">
@@ -2327,16 +2333,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="53" t="s">
         <v>88</v>
       </c>
       <c r="K28" s="17" t="s">
@@ -2364,49 +2370,49 @@
       <c r="G29" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="20"/>
       <c r="I29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="53"/>
+      <c r="J29" s="52"/>
       <c r="K29" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L29" s="22"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="29">
         <v>45502</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="30">
+      <c r="D30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="29">
         <v>45504</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H30" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="J30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="29"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -944,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1134,7 +1134,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,19 +1170,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1485,7 @@
   <dimension ref="A2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,41 +1505,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="49" t="s">
         <v>8</v>
       </c>
@@ -2206,7 +2209,7 @@
       <c r="H24" s="31">
         <v>45460</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="66" t="s">
         <v>67</v>
       </c>
       <c r="J24" s="44" t="s">
@@ -2215,72 +2218,72 @@
       <c r="K24" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="75"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="31">
         <v>45467</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="31">
         <v>45471</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="45">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72" t="s">
+      <c r="H25" s="76"/>
+      <c r="I25" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="63"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>45474</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="10">
         <v>45478</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18" t="s">
+      <c r="H26" s="63"/>
+      <c r="I26" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="L26" s="19"/>
+      <c r="L26" s="75"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
@@ -2423,32 +2426,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -377,11 +377,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023-07-19(금) 작품발표회
-[3차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>팀PJ
 3주간진행</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -537,6 +532,43 @@
   </si>
   <si>
     <t>Flutter 응용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/12(금) : 
+멘토링 2차</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/16(화) : 
+멘토링 3차</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/24(수) : 
+심평원 평가일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/25(목) : 
+3차PJ 발표일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-25(목) 작품발표회
+[3차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
+  </si>
+  <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/17(수) : 
+팀PJ 문서제출</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -797,21 +829,6 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -935,6 +952,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1002,14 +1056,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,9 +1077,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,9 +1101,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,83 +1140,95 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1482,10 +1536,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1501,61 +1555,62 @@
     <col min="9" max="9" width="30.75" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="45" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1563,763 +1618,765 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <v>45329</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <v>45330</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="30">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="35" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <v>45335</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>45338</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="41">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="46"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>45341</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <v>45345</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="44">
         <v>45345</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="47" t="s">
+      <c r="K7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="46"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <v>45348</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>45351</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="41">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="28"/>
+      <c r="I8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="50" t="s">
+      <c r="K8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="46"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="28">
         <v>45355</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>45359</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="50" t="s">
+      <c r="K9" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="46"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <v>45362</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <v>45366</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="41">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="28">
         <v>45363</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="47"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="28">
         <v>45369</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <v>45373</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="28"/>
+      <c r="I11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="K11" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="46"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>45376</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="28">
         <v>45380</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="K12" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="46"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="28">
         <v>45383</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="28">
         <v>45387</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="28">
         <v>45386</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="56" t="s">
+      <c r="J13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="46"/>
+      <c r="K13" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="28">
         <v>45390</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="28">
         <v>45394</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="41">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="47" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J14" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="46"/>
+      <c r="K14" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="28">
         <v>45397</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="28">
         <v>45401</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="41">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="47" t="s">
+      <c r="H15" s="29"/>
+      <c r="I15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="47" t="s">
+      <c r="J15" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="60"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="28">
         <v>45404</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <v>45408</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="28">
         <v>45407</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="43" t="s">
+      <c r="L16" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="28">
         <v>45411</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <v>45415</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="47" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="47" t="s">
+      <c r="J17" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="L17" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="28">
         <v>45419</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="28">
         <v>45422</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="28">
         <v>45422</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="47" t="s">
+      <c r="J18" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43" t="s">
+      <c r="L18" s="55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="28">
         <v>45425</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <v>45429</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="41">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="47" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="46"/>
-    </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43" t="s">
+      <c r="J19" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="28">
         <v>45432</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <v>45436</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="G20" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="28">
         <v>45436</v>
       </c>
-      <c r="I20" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="K20" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="28">
         <v>45439</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <v>45443</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="44" t="s">
+      <c r="H21" s="28"/>
+      <c r="I21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="46"/>
-    </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43" t="s">
+      <c r="K21" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" s="42"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="28">
         <v>45446</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="28">
         <v>45450</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="41">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="44" t="s">
+      <c r="H22" s="29"/>
+      <c r="I22" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="K22" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="42"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="28">
         <v>45453</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <v>45457</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="61" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="46"/>
-    </row>
-    <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="43" t="s">
+      <c r="K23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="28">
         <v>45460</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <v>45464</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="31">
+      <c r="G24" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="28">
         <v>45460</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="J24" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="67"/>
-    </row>
-    <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="43" t="s">
+      <c r="K24" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="60"/>
+    </row>
+    <row r="25" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="28">
         <v>45467</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="28">
         <v>45471</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="61" t="s">
+      <c r="G25" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="61"/>
+      <c r="I25" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="67"/>
-    </row>
-    <row r="26" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="38" t="s">
+      <c r="J25" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="L25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="28">
         <v>45474</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="28">
         <v>45478</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="63"/>
-      <c r="I26" s="64" t="s">
+      <c r="H26" s="61"/>
+      <c r="I26" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="L26" s="75"/>
-    </row>
-    <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14" t="s">
+      <c r="K26" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26" s="73"/>
+    </row>
+    <row r="27" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>45481</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>45485</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="37">
+      <c r="G27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="10">
         <v>45481</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="L27" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>52</v>
       </c>
@@ -2336,24 +2393,29 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="41" t="s">
+      <c r="G28" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="54" t="s">
+      <c r="I28" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K28" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="14" t="s">
         <v>39</v>
       </c>
@@ -2371,53 +2433,60 @@
         <v>5</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="H29" s="19"/>
       <c r="I29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22" t="s">
+      <c r="J29" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="26">
         <v>45502</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="26">
         <v>45504</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="42" t="s">
+      <c r="G30" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="L30" s="28"/>
-    </row>
-    <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" s="74"/>
+    </row>
+    <row r="31" spans="1:13" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2425,33 +2494,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70" t="s">
+    <row r="32" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -289,11 +289,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2024-07-18
-최종작품발표회</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2</t>
     </r>
@@ -569,6 +564,11 @@
   <si>
     <t>7/17(수) : 
 팀PJ 문서제출</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-25
+최종작품발표회</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -998,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1056,9 +1056,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,6 +1182,30 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,30 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,7 +1536,7 @@
   <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,57 +1557,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="45" t="s">
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="K4" s="44" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1618,762 +1615,762 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>45329</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>45330</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="32" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>45335</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>45338</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" s="42"/>
+      <c r="K6" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>45341</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>45345</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="43">
         <v>45345</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="42"/>
+      <c r="K7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>45348</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>45351</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="40" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="42"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>45355</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>45359</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="40" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="42"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="27">
         <v>45362</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>45366</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>45363</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="46" t="s">
+      <c r="J10" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="47"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="27">
         <v>45369</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>45373</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="46" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="42"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="27">
         <v>45376</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>45380</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="46" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="42"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="27">
         <v>45383</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>45387</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="27">
         <v>45386</v>
       </c>
-      <c r="I13" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="51" t="s">
+      <c r="I13" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="42"/>
+      <c r="K13" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="27">
         <v>45390</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>45394</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="43" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="42"/>
+      <c r="K14" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="41"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>45397</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="27">
         <v>45401</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="40">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="43" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="55"/>
+      <c r="J15" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="27">
         <v>45404</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>45408</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="27">
         <v>45407</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="55" t="s">
-        <v>88</v>
+      <c r="L16" s="54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="27">
         <v>45411</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="27">
         <v>45415</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="27"/>
+      <c r="I17" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="43" t="s">
+      <c r="J17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L17" s="55" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="27">
         <v>45419</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>45422</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <v>45422</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="J18" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="55" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="27">
         <v>45425</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="27">
         <v>45429</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="43" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="42"/>
+      <c r="J19" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="27">
         <v>45432</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="27">
         <v>45436</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="27">
         <v>45436</v>
       </c>
-      <c r="I20" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="40" t="s">
+      <c r="I20" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>96</v>
+      <c r="K20" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="56" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="27">
         <v>45439</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="27">
         <v>45443</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="40" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="L21" s="42"/>
+      <c r="K21" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="27">
         <v>45446</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="27">
         <v>45450</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="40">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="40" t="s">
+      <c r="H22" s="28"/>
+      <c r="I22" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="L22" s="42"/>
+      <c r="K22" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="27">
         <v>45453</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="27">
         <v>45457</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="56" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="42"/>
+      <c r="K23" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <v>45460</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="27">
         <v>45464</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="28">
+      <c r="G24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="27">
         <v>45460</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" s="60"/>
+      <c r="K24" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="59"/>
     </row>
     <row r="25" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="27">
         <v>45467</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="27">
         <v>45471</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="56" t="s">
+      <c r="G25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="L25" s="60"/>
+      <c r="J25" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="59"/>
     </row>
     <row r="26" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
         <v>45474</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="27">
         <v>45478</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="56" t="s">
+      <c r="H26" s="60"/>
+      <c r="I26" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="56" t="s">
+      <c r="J26" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="L26" s="73"/>
+      <c r="K26" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="10">
         <v>45481</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="10">
         <v>45485</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H27" s="10">
         <v>45481</v>
       </c>
-      <c r="I27" s="58" t="s">
+      <c r="I27" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>115</v>
+      <c r="J27" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2393,26 +2390,23 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" s="50" t="s">
+      <c r="G28" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>69</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="K28" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="M28" s="49" t="s">
-        <v>122</v>
+        <v>119</v>
+      </c>
+      <c r="K28" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="48" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2433,58 +2427,60 @@
         <v>5</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H29" s="19"/>
+        <v>109</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>122</v>
+      </c>
       <c r="I29" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="L29" s="75" t="s">
+      <c r="J29" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="L29" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="76" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="30" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="25">
         <v>45502</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>45504</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="G30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L30" s="74"/>
+      <c r="K30" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2495,32 +2491,32 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -998,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1032,9 +1032,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1051,9 +1048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,9 +1140,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,9 +1161,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,20 +1168,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,6 +1204,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,7 +1533,7 @@
   <dimension ref="A2:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1557,57 +1554,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="75"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="44" t="s">
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="42" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1615,872 +1612,873 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>45329</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <v>45330</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="31" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="25">
         <v>45335</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>45338</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="38">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <v>45341</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>45345</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="41">
         <v>45345</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="42" t="s">
+      <c r="K7" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <v>45348</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>45351</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="39" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="45" t="s">
+      <c r="K8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="41"/>
+      <c r="L8" s="39"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <v>45355</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>45359</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="39" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="41"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>45362</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>45366</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="38">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="25">
         <v>45363</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="46"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>45369</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
         <v>45373</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="45" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="41"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>45376</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
         <v>45380</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="45" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="45" t="s">
+      <c r="K12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="41"/>
+      <c r="L12" s="39"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>45383</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
         <v>45387</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="25">
         <v>45386</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="41"/>
+      <c r="L13" s="39"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="25">
         <v>45390</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
         <v>45394</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="38">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="41"/>
+      <c r="L14" s="39"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="25">
         <v>45397</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>45401</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="42" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="51"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="25">
         <v>45404</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
         <v>45408</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="25">
         <v>45407</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="J16" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>45411</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
         <v>45415</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="42" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="54" t="s">
+      <c r="L17" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>45419</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="25">
         <v>45422</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="25">
         <v>45422</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="54" t="s">
+      <c r="L18" s="51" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>45425</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>45429</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="42" t="s">
+      <c r="H19" s="25"/>
+      <c r="I19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="55" t="s">
+      <c r="J19" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="41"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="25">
         <v>45432</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <v>45436</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="25">
         <v>45436</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="K20" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="53" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="25">
         <v>45439</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="25">
         <v>45443</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="42" t="s">
+      <c r="H21" s="25"/>
+      <c r="I21" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="41"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="25">
         <v>45446</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="25">
         <v>45450</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="38">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="42" t="s">
+      <c r="H22" s="26"/>
+      <c r="I22" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="41"/>
+      <c r="L22" s="39"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>45453</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="25">
         <v>45457</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="55" t="s">
+      <c r="H23" s="26"/>
+      <c r="I23" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="41"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="25">
         <v>45460</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>45464</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="25">
         <v>45460</v>
       </c>
-      <c r="I24" s="58" t="s">
+      <c r="I24" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="25">
         <v>45467</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="25">
         <v>45471</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="55" t="s">
+      <c r="H25" s="56"/>
+      <c r="I25" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="59"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="25">
         <v>45474</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="25">
         <v>45478</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="55" t="s">
+      <c r="H26" s="56"/>
+      <c r="I26" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K26" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="25">
         <v>45481</v>
       </c>
-      <c r="D27" s="34" t="s">
+      <c r="D27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="25">
         <v>45485</v>
       </c>
-      <c r="F27" s="35">
+      <c r="F27" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="25">
         <v>45481</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="63" t="s">
+      <c r="K27" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="48" t="s">
+      <c r="L27" s="50" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>45488</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>45492</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="70"/>
+      <c r="I28" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="48" t="s">
+      <c r="M28" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>45495</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>45499</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="67" t="s">
+      <c r="L29" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="68" t="s">
+      <c r="M29" s="61" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="23">
         <v>45502</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <v>45504</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="37" t="s">
+      <c r="H30" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="66"/>
+      <c r="L30" s="59"/>
     </row>
     <row r="31" spans="1:13" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2491,32 +2489,32 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -535,40 +535,32 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
+  </si>
+  <si>
+    <t>3차 - 리액트PJ 완성도 높이기</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>7/16(화) : 
-멘토링 3차</t>
+멘토링 3차
+7/17(수) :
+팀PJ문서제출</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-24
+최종작품발표회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-24(수) 작품발표회
+[3차 프로젝트 발표]</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>7/24(수) : 
 심평원 평가일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/25(목) : 
-3차PJ 발표일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023-07-25(목) 작품발표회
-[3차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>3차 - 리액트PJ 완성도 높이기</t>
-  </si>
-  <si>
-    <t>3차 - 리액트PJ 완성도 높이기</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/17(수) : 
-팀PJ 문서제출</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024-07-25
-최종작품발표회</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +574,7 @@
     <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;\ aaa&quot;요일&quot;"/>
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -653,8 +645,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,8 +697,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -989,6 +995,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -998,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1035,9 +1065,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,9 +1072,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,12 +1125,6 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1137,9 +1155,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,11 +1194,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,23 +1230,26 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1231,6 +1258,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1530,7 +1562,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -1550,61 +1582,61 @@
     <col min="10" max="10" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="68"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="42" t="s">
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="38" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1612,875 +1644,869 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>45329</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <v>45330</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="25">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="29" t="s">
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>45335</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <v>45338</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="34">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37" t="s">
+      <c r="H6" s="24"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="23">
         <v>45341</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>45345</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="37">
         <v>45345</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="23">
         <v>45348</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <v>45351</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="34">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="37" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="39"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="23">
         <v>45355</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <v>45359</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="24"/>
+      <c r="I9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="39"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>45362</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <v>45366</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="34">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="23">
         <v>45363</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="44"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="23">
         <v>45369</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="23">
         <v>45373</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="43" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="39"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>45376</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="23">
         <v>45380</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="43" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="39"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="23">
         <v>45383</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="23">
         <v>45387</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>45386</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="47" t="s">
+      <c r="J13" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="39"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <v>45390</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>45394</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="34">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="40" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="47" t="s">
+      <c r="J14" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="39"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="23">
         <v>45397</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <v>45401</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="34">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="24"/>
+      <c r="I15" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="51"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="23">
         <v>45404</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <v>45408</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="23">
         <v>45407</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>45411</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>45415</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="51" t="s">
+      <c r="L17" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="23">
         <v>45419</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <v>45422</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="23">
         <v>45422</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <v>45425</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <v>45429</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="34">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="40" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="39"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <v>45432</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <v>45436</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="23">
         <v>45436</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="53" t="s">
+      <c r="L20" s="48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="23">
         <v>45439</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>45443</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="40" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="23">
         <v>45446</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <v>45450</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="34">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="40" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="37" t="s">
+      <c r="J22" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="23">
         <v>45453</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <v>45457</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="28" t="s">
+      <c r="G23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="52" t="s">
+      <c r="H23" s="24"/>
+      <c r="I23" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="37" t="s">
+      <c r="J23" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="1:13" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="36" t="s">
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>45460</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="23">
         <v>45464</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="23">
         <v>45460</v>
       </c>
-      <c r="I24" s="54" t="s">
+      <c r="I24" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="37" t="s">
+      <c r="J24" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="49" t="s">
+      <c r="K24" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="55"/>
-    </row>
-    <row r="25" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="23">
         <v>45467</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <v>45471</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="52" t="s">
+      <c r="H25" s="51"/>
+      <c r="I25" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="55"/>
-    </row>
-    <row r="26" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="36" t="s">
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="23">
         <v>45474</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="23">
         <v>45478</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="52" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="52" t="s">
+      <c r="J26" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="58"/>
-    </row>
-    <row r="27" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="36" t="s">
+      <c r="L26" s="53"/>
+    </row>
+    <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="23">
         <v>45481</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <v>45485</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="23">
         <v>45481</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="48" t="s">
+      <c r="J27" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="45" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="10">
         <v>45488</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="30" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="10">
         <v>45492</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71" t="s">
+      <c r="H28" s="55"/>
+      <c r="I28" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="K28" s="73" t="s">
+      <c r="J28" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="M28" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13" t="s">
+      <c r="L28" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="11">
         <v>45495</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="11">
         <v>45499</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="57" t="s">
+      <c r="J29" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17" t="s">
+      <c r="L29" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>45502</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>45504</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="22" t="s">
+      <c r="K30" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="59"/>
-    </row>
-    <row r="31" spans="1:13" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2488,33 +2514,33 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64" t="s">
+    <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -1028,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,18 +1062,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,9 +1140,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1185,29 +1170,23 @@
     <xf numFmtId="178" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="179" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1230,25 +1209,25 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1565,7 +1544,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1586,57 +1565,57 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="66"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="38" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="34" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1644,867 +1623,867 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>45329</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>45330</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="21">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="27" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="19">
         <v>45335</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <v>45338</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="30">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="35"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="19">
         <v>45341</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>45345</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="33">
         <v>45345</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="35"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="19">
         <v>45348</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <v>45351</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="30">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="33" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="35"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="19">
         <v>45355</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>45359</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="19">
         <v>45362</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>45366</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="30">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="19">
         <v>45363</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="40"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="19">
         <v>45369</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>45373</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="39" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="19">
         <v>45376</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>45380</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="39" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="35"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="19">
         <v>45383</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>45387</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="19">
         <v>45386</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="44" t="s">
+      <c r="K13" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="19">
         <v>45390</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>45394</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="30">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="35"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="19">
         <v>45397</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>45401</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="30">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="46"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="19">
         <v>45404</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>45408</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="19">
         <v>45407</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="36" t="s">
+      <c r="J16" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="36" t="s">
+      <c r="K16" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <v>45411</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>45415</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>45419</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>45422</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="19">
         <v>45422</v>
       </c>
-      <c r="I18" s="36" t="s">
+      <c r="I18" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="36" t="s">
+      <c r="K18" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="41" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <v>45425</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>45429</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="30">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="19"/>
+      <c r="I19" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="47" t="s">
+      <c r="J19" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="36" t="s">
+      <c r="K19" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="35"/>
+      <c r="L19" s="31"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="19">
         <v>45432</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>45436</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="19">
         <v>45436</v>
       </c>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="36" t="s">
+      <c r="K20" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="48" t="s">
+      <c r="L20" s="43" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>45439</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>45443</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="36" t="s">
+      <c r="H21" s="19"/>
+      <c r="I21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="36" t="s">
+      <c r="K21" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="19">
         <v>45446</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <v>45450</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="30">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="36" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="36" t="s">
+      <c r="K22" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="19">
         <v>45453</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>45457</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="47" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L23" s="35"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="19">
         <v>45460</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="19">
         <v>45464</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="19">
         <v>45460</v>
       </c>
-      <c r="I24" s="49" t="s">
+      <c r="I24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="L24" s="50"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="19">
         <v>45467</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="19">
         <v>45471</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47" t="s">
+      <c r="H25" s="46"/>
+      <c r="I25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="36" t="s">
+      <c r="K25" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="50"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="19">
         <v>45474</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="19">
         <v>45478</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47" t="s">
+      <c r="H26" s="46"/>
+      <c r="I26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="53"/>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="19">
         <v>45481</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="19">
         <v>45485</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="19">
         <v>45481</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="L27" s="45" t="s">
+      <c r="L27" s="40" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="19">
         <v>45488</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="19">
         <v>45492</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="G28" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56" t="s">
+      <c r="H28" s="64"/>
+      <c r="I28" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="L28" s="67" t="s">
+      <c r="L28" s="66" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>45495</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>45499</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="68" t="s">
+      <c r="I29" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="K29" s="52" t="s">
+      <c r="K29" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="73" t="s">
+      <c r="L29" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>45502</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>45504</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="20" t="s">
+      <c r="J30" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="L30" s="54"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2515,32 +2494,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -290,23 +290,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>024-07-31
-수료식</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍</t>
     </r>
@@ -549,18 +532,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>2023-07-24(수) 작품발표회
+[3차 프로젝트 발표]</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/24(수) : 
+심평원 평가일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>2024-07-24
 최종작품발표회</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2023-07-24(수) 작품발표회
-[3차 프로젝트 발표]</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>7/24(수) : 
-심평원 평가일</t>
+    <t>2024-07-31
+수료식</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +642,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,18 +681,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -999,19 +981,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1028,7 +997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1059,30 +1028,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,15 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1173,19 +1109,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,25 +1145,43 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1498,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1565,57 +1519,57 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="34" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="L4" s="7" t="s">
@@ -1623,867 +1577,867 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="11">
         <v>45329</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <v>45330</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="13">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <v>45335</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>45338</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="19">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="31"/>
+      <c r="K6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="11">
         <v>45341</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="11">
         <v>45345</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="22">
         <v>45345</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="31"/>
+      <c r="K7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="11">
         <v>45348</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="11">
         <v>45351</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="19">
         <f>DAYS360(C8,E8)+1</f>
         <v>4</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="29" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="11">
         <v>45355</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="11">
         <v>45359</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="31"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="11">
         <v>45362</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>45366</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="19">
         <f>DAYS360(C10,E10)+1</f>
         <v>5</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="11">
         <v>45363</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="35" t="s">
+      <c r="J10" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="36"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="11">
         <v>45369</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>45373</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="35" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="31"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="11">
         <v>45376</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <v>45380</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="35" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="31"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="11">
         <v>45383</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="11">
         <v>45387</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="11">
         <v>45386</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="31"/>
+      <c r="K13" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="11">
         <v>45390</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="11">
         <v>45394</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="19">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="32" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="L14" s="31"/>
+      <c r="K14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="11">
         <v>45397</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="11">
         <v>45401</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="19">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="32" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="41"/>
+      <c r="J15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="11">
         <v>45404</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="11">
         <v>45408</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="11">
         <v>45407</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>87</v>
+      <c r="L16" s="30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="11">
         <v>45411</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="11">
         <v>45415</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="32" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="32" t="s">
+      <c r="J17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="41" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="11">
         <v>45419</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="11">
         <v>45422</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="11">
         <v>45422</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="32" t="s">
+      <c r="J18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="41" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="11">
         <v>45425</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="11">
         <v>45429</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="19">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="32" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="31"/>
+      <c r="J19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="11">
         <v>45432</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="11">
         <v>45436</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="11">
         <v>45436</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="29" t="s">
+      <c r="I20" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>95</v>
+      <c r="K20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="11">
         <v>45439</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="11">
         <v>45443</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="31"/>
+      <c r="K21" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="11">
         <v>45446</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="11">
         <v>45450</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="19">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="29" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="31"/>
+      <c r="K22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="11">
         <v>45453</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="11">
         <v>45457</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="42" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" s="31"/>
+      <c r="K23" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="11">
         <v>45460</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="11">
         <v>45464</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="19">
+      <c r="G24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="11">
         <v>45460</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="L24" s="45"/>
+      <c r="K24" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="11">
         <v>45467</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="11">
         <v>45471</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="42" t="s">
+      <c r="G25" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="45"/>
+      <c r="J25" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="11">
         <v>45474</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="11">
         <v>45478</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="42" t="s">
+      <c r="H26" s="35"/>
+      <c r="I26" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L26" s="47"/>
+      <c r="K26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="11">
         <v>45481</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="11">
         <v>45485</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="19">
+      <c r="G27" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="11">
         <v>45481</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="L27" s="40" t="s">
-        <v>114</v>
+      <c r="J27" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="11">
         <v>45488</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="11">
         <v>45492</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="44" t="s">
+      <c r="G28" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J28" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="L28" s="66" t="s">
-        <v>117</v>
+      <c r="J28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="11">
         <v>45495</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="11">
         <v>45499</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="51" t="s">
+      <c r="G29" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="K29" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="30" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="50">
         <v>45502</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="50">
         <v>45504</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="52">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="I30" s="15" t="s">
+      <c r="G30" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="J30" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="L30" s="48"/>
+      <c r="K30" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L30" s="56"/>
     </row>
     <row r="31" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
@@ -2494,32 +2448,32 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
